--- a/upload/feminicidio_2021.xlsx
+++ b/upload/feminicidio_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF9D8A-18F0-451D-A2D8-E80DF08938C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1DD16-65BC-48D0-806B-D1B68637ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1065" windowWidth="18000" windowHeight="9360" xr2:uid="{F79353B7-72C3-4238-965F-23BC5CD56C76}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EE8DA7F4-8E74-498B-926F-1A3C36F7DCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="200">
   <si>
+    <t>MUNICIPIO_COD</t>
+  </si>
+  <si>
+    <t>MUNICIPIO_FATO</t>
+  </si>
+  <si>
+    <t>DATA_FATO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
     <t>RISP</t>
   </si>
   <si>
@@ -47,9 +62,15 @@
     <t>TENTADO/CONSUMADO</t>
   </si>
   <si>
+    <t>QTDE_VITIMAS</t>
+  </si>
+  <si>
     <t>CONTAGEM</t>
   </si>
   <si>
+    <t>2º RISP - Contagem</t>
+  </si>
+  <si>
     <t>2) RMBH (sem BH)</t>
   </si>
   <si>
@@ -59,6 +80,9 @@
     <t>DIVINOPOLIS</t>
   </si>
   <si>
+    <t>7º RISP - Divinópolis</t>
+  </si>
+  <si>
     <t>3) Interior de MG</t>
   </si>
   <si>
@@ -71,21 +95,39 @@
     <t>ITUIUTABA</t>
   </si>
   <si>
+    <t>9º RISP - Uberlândia</t>
+  </si>
+  <si>
     <t>SAO JOAO DEL REI</t>
   </si>
   <si>
+    <t>13º RISP - Barbacena</t>
+  </si>
+  <si>
     <t>JUIZ DE FORA</t>
   </si>
   <si>
+    <t>4º RISP - Juiz de Fora</t>
+  </si>
+  <si>
     <t>SANTA BARBARA</t>
   </si>
   <si>
+    <t>12º RISP - Ipatinga</t>
+  </si>
+  <si>
     <t>VARGEM BONITA</t>
   </si>
   <si>
+    <t>18º RISP - Poços de Caldas</t>
+  </si>
+  <si>
     <t>BONITO DE MINAS</t>
   </si>
   <si>
+    <t>11º RISP - Montes Claros</t>
+  </si>
+  <si>
     <t>ARAGUARI</t>
   </si>
   <si>
@@ -95,6 +137,9 @@
     <t>SETE LAGOAS</t>
   </si>
   <si>
+    <t>19º RISP - Sete Lagoas</t>
+  </si>
+  <si>
     <t>RAUL SOARES</t>
   </si>
   <si>
@@ -104,18 +149,30 @@
     <t>BELO HORIZONTE</t>
   </si>
   <si>
+    <t>1º RISP - Belo Horizonte</t>
+  </si>
+  <si>
     <t>1) Belo Horizonte</t>
   </si>
   <si>
     <t>UBERABA</t>
   </si>
   <si>
+    <t>5º RISP - Uberaba</t>
+  </si>
+  <si>
     <t>BOM REPOUSO</t>
   </si>
   <si>
+    <t>17º RISP - Pouso Alegre</t>
+  </si>
+  <si>
     <t>VAZANTE</t>
   </si>
   <si>
+    <t>16º RISP - Unaí</t>
+  </si>
+  <si>
     <t>MATIAS BARBOSA</t>
   </si>
   <si>
@@ -137,9 +194,15 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>15º RISP - Teófilo Otoni</t>
+  </si>
+  <si>
     <t>SANTA LUZIA</t>
   </si>
   <si>
+    <t>3º RISP - Vespasiano</t>
+  </si>
+  <si>
     <t>IPATINGA</t>
   </si>
   <si>
@@ -152,6 +215,9 @@
     <t>PERDOES</t>
   </si>
   <si>
+    <t>6º RISP - Lavras</t>
+  </si>
+  <si>
     <t>PRADOS</t>
   </si>
   <si>
@@ -176,9 +242,15 @@
     <t>SANTO ANTONIO DO RIO ABAIXO</t>
   </si>
   <si>
+    <t>14º RISP - Curvelo</t>
+  </si>
+  <si>
     <t>PATOS DE MINAS</t>
   </si>
   <si>
+    <t>10º RISP - Patos de Minas</t>
+  </si>
+  <si>
     <t>NOVA SERRANA</t>
   </si>
   <si>
@@ -197,6 +269,9 @@
     <t>NOVA BELEM</t>
   </si>
   <si>
+    <t>8º RISP - Governador Valadares</t>
+  </si>
+  <si>
     <t>ITABIRINHA</t>
   </si>
   <si>
@@ -561,81 +636,6 @@
   </si>
   <si>
     <t>MAR DE ESPANHA</t>
-  </si>
-  <si>
-    <t>MUNICIPIO_COD</t>
-  </si>
-  <si>
-    <t>MUNICIPIO_FATO</t>
-  </si>
-  <si>
-    <t>DATA_FATO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>QTDE_VITIMAS</t>
-  </si>
-  <si>
-    <t>2º RISP - Contagem</t>
-  </si>
-  <si>
-    <t>7º RISP - Divinópolis</t>
-  </si>
-  <si>
-    <t>9º RISP - Uberlândia</t>
-  </si>
-  <si>
-    <t>13º RISP - Barbacena</t>
-  </si>
-  <si>
-    <t>4º RISP - Juiz de Fora</t>
-  </si>
-  <si>
-    <t>12º RISP - Ipatinga</t>
-  </si>
-  <si>
-    <t>18º RISP - Poços de Caldas</t>
-  </si>
-  <si>
-    <t>11º RISP - Montes Claros</t>
-  </si>
-  <si>
-    <t>19º RISP - Sete Lagoas</t>
-  </si>
-  <si>
-    <t>1º RISP - Belo Horizonte</t>
-  </si>
-  <si>
-    <t>5º RISP - Uberaba</t>
-  </si>
-  <si>
-    <t>17º RISP - Pouso Alegre</t>
-  </si>
-  <si>
-    <t>16º RISP - Unaí</t>
-  </si>
-  <si>
-    <t>15º RISP - Teófilo Otoni</t>
-  </si>
-  <si>
-    <t>3º RISP - Vespasiano</t>
-  </si>
-  <si>
-    <t>6º RISP - Lavras</t>
-  </si>
-  <si>
-    <t>14º RISP - Curvelo</t>
-  </si>
-  <si>
-    <t>10º RISP - Patos de Minas</t>
-  </si>
-  <si>
-    <t>8º RISP - Governador Valadares</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,6 +727,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,52 +1044,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4D6794-BA67-4898-84C0-508FACBFA175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF478CDD-AAAC-4E8E-AEA1-AF85C20051B7}">
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,7 +1087,7 @@
         <v>311860</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
         <v>44197</v>
@@ -1105,14 +1098,14 @@
       <c r="E2" s="4">
         <v>2021</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>181</v>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -1123,7 +1116,7 @@
         <v>312230</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6">
         <v>44198</v>
@@ -1134,14 +1127,14 @@
       <c r="E3" s="4">
         <v>2021</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>182</v>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -1152,7 +1145,7 @@
         <v>313380</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>44199</v>
@@ -1163,14 +1156,14 @@
       <c r="E4" s="4">
         <v>2021</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>182</v>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -1181,7 +1174,7 @@
         <v>313420</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>44201</v>
@@ -1192,14 +1185,14 @@
       <c r="E5" s="4">
         <v>2021</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>183</v>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1210,7 +1203,7 @@
         <v>316250</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
         <v>44205</v>
@@ -1221,14 +1214,14 @@
       <c r="E6" s="4">
         <v>2021</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>184</v>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1239,7 +1232,7 @@
         <v>313670</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6">
         <v>44206</v>
@@ -1250,14 +1243,14 @@
       <c r="E7" s="4">
         <v>2021</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>185</v>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1268,7 +1261,7 @@
         <v>315720</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>44208</v>
@@ -1279,14 +1272,14 @@
       <c r="E8" s="4">
         <v>2021</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>186</v>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1297,7 +1290,7 @@
         <v>311860</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6">
         <v>44210</v>
@@ -1308,14 +1301,14 @@
       <c r="E9" s="4">
         <v>2021</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>181</v>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1326,7 +1319,7 @@
         <v>317060</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
         <v>44212</v>
@@ -1337,14 +1330,14 @@
       <c r="E10" s="4">
         <v>2021</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>187</v>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1355,7 +1348,7 @@
         <v>310825</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>44213</v>
@@ -1366,14 +1359,14 @@
       <c r="E11" s="4">
         <v>2021</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>188</v>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1384,7 +1377,7 @@
         <v>310350</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>44214</v>
@@ -1395,14 +1388,14 @@
       <c r="E12" s="4">
         <v>2021</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>183</v>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -1413,7 +1406,7 @@
         <v>313370</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
         <v>44214</v>
@@ -1424,14 +1417,14 @@
       <c r="E13" s="4">
         <v>2021</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>182</v>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1442,7 +1435,7 @@
         <v>316720</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6">
         <v>44215</v>
@@ -1453,14 +1446,14 @@
       <c r="E14" s="4">
         <v>2021</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>189</v>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
@@ -1471,7 +1464,7 @@
         <v>315400</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6">
         <v>44215</v>
@@ -1482,14 +1475,14 @@
       <c r="E15" s="4">
         <v>2021</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>186</v>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1500,7 +1493,7 @@
         <v>311220</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6">
         <v>44216</v>
@@ -1511,14 +1504,14 @@
       <c r="E16" s="4">
         <v>2021</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>184</v>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1529,7 +1522,7 @@
         <v>310620</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6">
         <v>44217</v>
@@ -1540,14 +1533,14 @@
       <c r="E17" s="4">
         <v>2021</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>190</v>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1558,7 +1551,7 @@
         <v>317010</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>44217</v>
@@ -1569,14 +1562,14 @@
       <c r="E18" s="4">
         <v>2021</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>191</v>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1587,7 +1580,7 @@
         <v>310790</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6">
         <v>44218</v>
@@ -1598,14 +1591,14 @@
       <c r="E19" s="4">
         <v>2021</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>192</v>
+      <c r="F19" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1616,7 +1609,7 @@
         <v>317100</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6">
         <v>44218</v>
@@ -1627,14 +1620,14 @@
       <c r="E20" s="4">
         <v>2021</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>193</v>
+      <c r="F20" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1645,7 +1638,7 @@
         <v>317100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6">
         <v>44218</v>
@@ -1656,14 +1649,14 @@
       <c r="E21" s="4">
         <v>2021</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>193</v>
+      <c r="F21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1674,7 +1667,7 @@
         <v>314080</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6">
         <v>44220</v>
@@ -1685,14 +1678,14 @@
       <c r="E22" s="4">
         <v>2021</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>185</v>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -1703,7 +1696,7 @@
         <v>313360</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6">
         <v>44221</v>
@@ -1714,14 +1707,14 @@
       <c r="E23" s="4">
         <v>2021</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>192</v>
+      <c r="F23" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1732,7 +1725,7 @@
         <v>310620</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6">
         <v>44221</v>
@@ -1743,14 +1736,14 @@
       <c r="E24" s="4">
         <v>2021</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>190</v>
+      <c r="F24" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
         <v>2</v>
@@ -1761,7 +1754,7 @@
         <v>311860</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6">
         <v>44225</v>
@@ -1772,14 +1765,14 @@
       <c r="E25" s="4">
         <v>2021</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>181</v>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -1790,7 +1783,7 @@
         <v>315460</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6">
         <v>44227</v>
@@ -1801,14 +1794,14 @@
       <c r="E26" s="4">
         <v>2021</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>181</v>
+      <c r="F26" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -1819,7 +1812,7 @@
         <v>316292</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6">
         <v>44228</v>
@@ -1830,14 +1823,14 @@
       <c r="E27" s="4">
         <v>2021</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>181</v>
+      <c r="F27" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1848,7 +1841,7 @@
         <v>317020</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6">
         <v>44228</v>
@@ -1859,14 +1852,14 @@
       <c r="E28" s="4">
         <v>2021</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>183</v>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1877,7 +1870,7 @@
         <v>311130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6">
         <v>44229</v>
@@ -1888,14 +1881,14 @@
       <c r="E29" s="4">
         <v>2021</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>187</v>
+      <c r="F29" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1906,7 +1899,7 @@
         <v>314140</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6">
         <v>44229</v>
@@ -1917,14 +1910,14 @@
       <c r="E30" s="4">
         <v>2021</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>194</v>
+      <c r="F30" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -1935,7 +1928,7 @@
         <v>317010</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6">
         <v>44230</v>
@@ -1946,14 +1939,14 @@
       <c r="E31" s="4">
         <v>2021</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>191</v>
+      <c r="F31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -1964,7 +1957,7 @@
         <v>315780</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6">
         <v>44231</v>
@@ -1975,14 +1968,14 @@
       <c r="E32" s="4">
         <v>2021</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>195</v>
+      <c r="F32" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -1993,7 +1986,7 @@
         <v>313130</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C33" s="6">
         <v>44232</v>
@@ -2004,14 +1997,14 @@
       <c r="E33" s="4">
         <v>2021</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>186</v>
+      <c r="F33" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2022,7 +2015,7 @@
         <v>314015</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6">
         <v>44232</v>
@@ -2033,14 +2026,14 @@
       <c r="E34" s="4">
         <v>2021</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>181</v>
+      <c r="F34" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -2051,7 +2044,7 @@
         <v>313130</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6">
         <v>44233</v>
@@ -2062,14 +2055,14 @@
       <c r="E35" s="4">
         <v>2021</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>186</v>
+      <c r="F35" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -2080,7 +2073,7 @@
         <v>310160</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C36" s="6">
         <v>44235</v>
@@ -2091,14 +2084,14 @@
       <c r="E36" s="4">
         <v>2021</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>187</v>
+      <c r="F36" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -2109,7 +2102,7 @@
         <v>310620</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C37" s="6">
         <v>44239</v>
@@ -2120,14 +2113,14 @@
       <c r="E37" s="4">
         <v>2021</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>190</v>
+      <c r="F37" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -2138,7 +2131,7 @@
         <v>310620</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6">
         <v>44240</v>
@@ -2149,14 +2142,14 @@
       <c r="E38" s="4">
         <v>2021</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>190</v>
+      <c r="F38" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
@@ -2167,7 +2160,7 @@
         <v>314990</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6">
         <v>44241</v>
@@ -2178,14 +2171,14 @@
       <c r="E39" s="4">
         <v>2021</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>196</v>
+      <c r="F39" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -2196,7 +2189,7 @@
         <v>311860</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C40" s="6">
         <v>44245</v>
@@ -2207,14 +2200,14 @@
       <c r="E40" s="4">
         <v>2021</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>181</v>
+      <c r="F40" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -2225,7 +2218,7 @@
         <v>316720</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6">
         <v>44245</v>
@@ -2236,14 +2229,14 @@
       <c r="E41" s="4">
         <v>2021</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>189</v>
+      <c r="F41" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -2254,7 +2247,7 @@
         <v>315270</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C42" s="6">
         <v>44249</v>
@@ -2265,14 +2258,14 @@
       <c r="E42" s="4">
         <v>2021</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>184</v>
+      <c r="F42" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -2283,7 +2276,7 @@
         <v>310620</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C43" s="6">
         <v>44249</v>
@@ -2294,14 +2287,14 @@
       <c r="E43" s="4">
         <v>2021</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>190</v>
+      <c r="F43" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -2312,7 +2305,7 @@
         <v>314430</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>44249</v>
@@ -2323,14 +2316,14 @@
       <c r="E44" s="4">
         <v>2021</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>194</v>
+      <c r="F44" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -2341,7 +2334,7 @@
         <v>311860</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C45" s="6">
         <v>44252</v>
@@ -2352,14 +2345,14 @@
       <c r="E45" s="4">
         <v>2021</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>181</v>
+      <c r="F45" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2370,7 +2363,7 @@
         <v>311830</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6">
         <v>44252</v>
@@ -2381,14 +2374,14 @@
       <c r="E46" s="4">
         <v>2021</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>184</v>
+      <c r="F46" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2399,7 +2392,7 @@
         <v>313190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C47" s="6">
         <v>44253</v>
@@ -2410,14 +2403,14 @@
       <c r="E47" s="4">
         <v>2021</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>195</v>
+      <c r="F47" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -2428,7 +2421,7 @@
         <v>311860</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C48" s="6">
         <v>44254</v>
@@ -2439,14 +2432,14 @@
       <c r="E48" s="4">
         <v>2021</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>181</v>
+      <c r="F48" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2457,7 +2450,7 @@
         <v>315460</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C49" s="6">
         <v>44254</v>
@@ -2468,14 +2461,14 @@
       <c r="E49" s="4">
         <v>2021</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>181</v>
+      <c r="F49" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2486,7 +2479,7 @@
         <v>311340</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C50" s="6">
         <v>44254</v>
@@ -2497,14 +2490,14 @@
       <c r="E50" s="4">
         <v>2021</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>186</v>
+      <c r="F50" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -2515,7 +2508,7 @@
         <v>316980</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C51" s="6">
         <v>44255</v>
@@ -2526,14 +2519,14 @@
       <c r="E51" s="4">
         <v>2021</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>192</v>
+      <c r="F51" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -2544,7 +2537,7 @@
         <v>317010</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C52" s="6">
         <v>44255</v>
@@ -2555,14 +2548,14 @@
       <c r="E52" s="4">
         <v>2021</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>191</v>
+      <c r="F52" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2573,7 +2566,7 @@
         <v>311860</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C53" s="6">
         <v>44257</v>
@@ -2584,14 +2577,14 @@
       <c r="E53" s="4">
         <v>2021</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>181</v>
+      <c r="F53" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -2602,7 +2595,7 @@
         <v>313940</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C54" s="6">
         <v>44257</v>
@@ -2613,14 +2606,14 @@
       <c r="E54" s="4">
         <v>2021</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>186</v>
+      <c r="F54" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -2631,7 +2624,7 @@
         <v>316050</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C55" s="6">
         <v>44257</v>
@@ -2642,14 +2635,14 @@
       <c r="E55" s="4">
         <v>2021</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>197</v>
+      <c r="F55" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I55" s="7">
         <v>1</v>
@@ -2660,7 +2653,7 @@
         <v>314800</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6">
         <v>44264</v>
@@ -2671,14 +2664,14 @@
       <c r="E56" s="4">
         <v>2021</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>198</v>
+      <c r="F56" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2689,7 +2682,7 @@
         <v>314520</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C57" s="6">
         <v>44264</v>
@@ -2700,14 +2693,14 @@
       <c r="E57" s="4">
         <v>2021</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>182</v>
+      <c r="F57" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -2718,7 +2711,7 @@
         <v>315760</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C58" s="6">
         <v>44266</v>
@@ -2729,14 +2722,14 @@
       <c r="E58" s="4">
         <v>2021</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>197</v>
+      <c r="F58" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -2747,7 +2740,7 @@
         <v>310620</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C59" s="6">
         <v>44268</v>
@@ -2758,14 +2751,14 @@
       <c r="E59" s="4">
         <v>2021</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>190</v>
+      <c r="F59" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2776,7 +2769,7 @@
         <v>315180</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C60" s="6">
         <v>44268</v>
@@ -2787,14 +2780,14 @@
       <c r="E60" s="4">
         <v>2021</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>187</v>
+      <c r="F60" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -2805,7 +2798,7 @@
         <v>317020</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C61" s="6">
         <v>44268</v>
@@ -2816,14 +2809,14 @@
       <c r="E61" s="4">
         <v>2021</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>183</v>
+      <c r="F61" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -2834,7 +2827,7 @@
         <v>310670</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6">
         <v>44268</v>
@@ -2845,14 +2838,14 @@
       <c r="E62" s="4">
         <v>2021</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>181</v>
+      <c r="F62" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2863,7 +2856,7 @@
         <v>313570</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C63" s="6">
         <v>44268</v>
@@ -2874,14 +2867,14 @@
       <c r="E63" s="4">
         <v>2021</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>189</v>
+      <c r="F63" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2892,7 +2885,7 @@
         <v>314467</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6">
         <v>44268</v>
@@ -2903,14 +2896,14 @@
       <c r="E64" s="4">
         <v>2021</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>199</v>
+      <c r="F64" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2921,7 +2914,7 @@
         <v>310670</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C65" s="6">
         <v>44269</v>
@@ -2932,14 +2925,14 @@
       <c r="E65" s="4">
         <v>2021</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>181</v>
+      <c r="F65" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -2950,7 +2943,7 @@
         <v>313180</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C66" s="6">
         <v>44273</v>
@@ -2961,14 +2954,14 @@
       <c r="E66" s="4">
         <v>2021</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>199</v>
+      <c r="F66" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I66" s="7">
         <v>2</v>
@@ -2979,7 +2972,7 @@
         <v>314280</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C67" s="6">
         <v>44274</v>
@@ -2990,14 +2983,14 @@
       <c r="E67" s="4">
         <v>2021</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>183</v>
+      <c r="F67" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -3008,7 +3001,7 @@
         <v>310450</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C68" s="6">
         <v>44275</v>
@@ -3019,14 +3012,14 @@
       <c r="E68" s="4">
         <v>2021</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>193</v>
+      <c r="F68" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -3037,7 +3030,7 @@
         <v>313420</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C69" s="6">
         <v>44275</v>
@@ -3048,14 +3041,14 @@
       <c r="E69" s="4">
         <v>2021</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>183</v>
+      <c r="F69" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -3066,7 +3059,7 @@
         <v>314655</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C70" s="6">
         <v>44275</v>
@@ -3077,14 +3070,14 @@
       <c r="E70" s="4">
         <v>2021</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>188</v>
+      <c r="F70" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I70" s="7">
         <v>1</v>
@@ -3095,7 +3088,7 @@
         <v>315460</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C71" s="6">
         <v>44276</v>
@@ -3106,14 +3099,14 @@
       <c r="E71" s="4">
         <v>2021</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>181</v>
+      <c r="F71" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -3124,7 +3117,7 @@
         <v>314070</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C72" s="6">
         <v>44277</v>
@@ -3135,14 +3128,14 @@
       <c r="E72" s="4">
         <v>2021</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>181</v>
+      <c r="F72" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I72" s="7">
         <v>2</v>
@@ -3153,7 +3146,7 @@
         <v>312235</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C73" s="6">
         <v>44278</v>
@@ -3164,14 +3157,14 @@
       <c r="E73" s="4">
         <v>2021</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>194</v>
+      <c r="F73" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -3182,7 +3175,7 @@
         <v>310665</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C74" s="6">
         <v>44279</v>
@@ -3193,14 +3186,14 @@
       <c r="E74" s="4">
         <v>2021</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>188</v>
+      <c r="F74" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -3211,7 +3204,7 @@
         <v>312770</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C75" s="6">
         <v>44279</v>
@@ -3222,14 +3215,14 @@
       <c r="E75" s="4">
         <v>2021</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>199</v>
+      <c r="F75" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
@@ -3240,7 +3233,7 @@
         <v>310620</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C76" s="6">
         <v>44282</v>
@@ -3251,14 +3244,14 @@
       <c r="E76" s="4">
         <v>2021</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>190</v>
+      <c r="F76" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I76" s="7">
         <v>1</v>
@@ -3269,7 +3262,7 @@
         <v>316720</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C77" s="6">
         <v>44282</v>
@@ -3280,14 +3273,14 @@
       <c r="E77" s="4">
         <v>2021</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>189</v>
+      <c r="F77" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -3298,7 +3291,7 @@
         <v>312330</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C78" s="6">
         <v>44284</v>
@@ -3309,14 +3302,14 @@
       <c r="E78" s="4">
         <v>2021</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>185</v>
+      <c r="F78" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I78" s="7">
         <v>2</v>
@@ -3327,7 +3320,7 @@
         <v>313130</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C79" s="6">
         <v>44284</v>
@@ -3338,14 +3331,14 @@
       <c r="E79" s="4">
         <v>2021</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>186</v>
+      <c r="F79" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I79" s="7">
         <v>1</v>
@@ -3356,7 +3349,7 @@
         <v>311160</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C80" s="6">
         <v>44285</v>
@@ -3367,14 +3360,14 @@
       <c r="E80" s="4">
         <v>2021</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>187</v>
+      <c r="F80" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -3385,7 +3378,7 @@
         <v>317180</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C81" s="6">
         <v>44286</v>
@@ -3396,14 +3389,14 @@
       <c r="E81" s="4">
         <v>2021</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>199</v>
+      <c r="F81" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -3414,7 +3407,7 @@
         <v>310620</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C82" s="6">
         <v>44286</v>
@@ -3425,14 +3418,14 @@
       <c r="E82" s="4">
         <v>2021</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>190</v>
+      <c r="F82" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I82" s="7">
         <v>1</v>
@@ -3443,7 +3436,7 @@
         <v>310620</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C83" s="6">
         <v>44288</v>
@@ -3454,14 +3447,14 @@
       <c r="E83" s="4">
         <v>2021</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>190</v>
+      <c r="F83" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -3472,7 +3465,7 @@
         <v>311800</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C84" s="6">
         <v>44288</v>
@@ -3483,14 +3476,14 @@
       <c r="E84" s="4">
         <v>2021</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>184</v>
+      <c r="F84" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -3501,7 +3494,7 @@
         <v>311860</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C85" s="6">
         <v>44289</v>
@@ -3512,14 +3505,14 @@
       <c r="E85" s="4">
         <v>2021</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>181</v>
+      <c r="F85" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -3530,7 +3523,7 @@
         <v>314980</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C86" s="6">
         <v>44289</v>
@@ -3541,14 +3534,14 @@
       <c r="E86" s="4">
         <v>2021</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>191</v>
+      <c r="F86" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -3559,7 +3552,7 @@
         <v>317020</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C87" s="6">
         <v>44290</v>
@@ -3570,14 +3563,14 @@
       <c r="E87" s="4">
         <v>2021</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>183</v>
+      <c r="F87" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -3588,7 +3581,7 @@
         <v>316190</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C88" s="6">
         <v>44291</v>
@@ -3599,14 +3592,14 @@
       <c r="E88" s="4">
         <v>2021</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>186</v>
+      <c r="F88" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -3617,7 +3610,7 @@
         <v>315460</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C89" s="6">
         <v>44292</v>
@@ -3628,14 +3621,14 @@
       <c r="E89" s="4">
         <v>2021</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>181</v>
+      <c r="F89" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -3646,7 +3639,7 @@
         <v>312710</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C90" s="6">
         <v>44293</v>
@@ -3657,14 +3650,14 @@
       <c r="E90" s="4">
         <v>2021</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>191</v>
+      <c r="F90" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -3675,7 +3668,7 @@
         <v>310350</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C91" s="6">
         <v>44296</v>
@@ -3686,14 +3679,14 @@
       <c r="E91" s="4">
         <v>2021</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>183</v>
+      <c r="F91" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -3704,7 +3697,7 @@
         <v>313410</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C92" s="6">
         <v>44296</v>
@@ -3715,14 +3708,14 @@
       <c r="E92" s="4">
         <v>2021</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>199</v>
+      <c r="F92" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I92" s="7">
         <v>1</v>
@@ -3733,7 +3726,7 @@
         <v>315370</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C93" s="6">
         <v>44297</v>
@@ -3744,14 +3737,14 @@
       <c r="E93" s="4">
         <v>2021</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>182</v>
+      <c r="F93" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I93" s="7">
         <v>1</v>
@@ -3762,7 +3755,7 @@
         <v>316720</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C94" s="6">
         <v>44297</v>
@@ -3773,14 +3766,14 @@
       <c r="E94" s="4">
         <v>2021</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>189</v>
+      <c r="F94" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I94" s="7">
         <v>1</v>
@@ -3791,7 +3784,7 @@
         <v>310730</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C95" s="6">
         <v>44298</v>
@@ -3802,14 +3795,14 @@
       <c r="E95" s="4">
         <v>2021</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>188</v>
+      <c r="F95" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I95" s="7">
         <v>1</v>
@@ -3820,7 +3813,7 @@
         <v>312770</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C96" s="6">
         <v>44299</v>
@@ -3831,14 +3824,14 @@
       <c r="E96" s="4">
         <v>2021</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>199</v>
+      <c r="F96" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I96" s="7">
         <v>1</v>
@@ -3849,7 +3842,7 @@
         <v>312380</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C97" s="6">
         <v>44300</v>
@@ -3860,14 +3853,14 @@
       <c r="E97" s="4">
         <v>2021</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>188</v>
+      <c r="F97" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I97" s="7">
         <v>1</v>
@@ -3878,7 +3871,7 @@
         <v>314330</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C98" s="6">
         <v>44302</v>
@@ -3889,14 +3882,14 @@
       <c r="E98" s="4">
         <v>2021</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>188</v>
+      <c r="F98" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I98" s="7">
         <v>1</v>
@@ -3907,7 +3900,7 @@
         <v>313220</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C99" s="6">
         <v>44303</v>
@@ -3918,14 +3911,14 @@
       <c r="E99" s="4">
         <v>2021</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>181</v>
+      <c r="F99" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I99" s="7">
         <v>1</v>
@@ -3936,7 +3929,7 @@
         <v>310620</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C100" s="6">
         <v>44304</v>
@@ -3947,14 +3940,14 @@
       <c r="E100" s="4">
         <v>2021</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>190</v>
+      <c r="F100" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I100" s="7">
         <v>1</v>
@@ -3965,7 +3958,7 @@
         <v>314140</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C101" s="6">
         <v>44304</v>
@@ -3976,14 +3969,14 @@
       <c r="E101" s="4">
         <v>2021</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>194</v>
+      <c r="F101" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I101" s="7">
         <v>1</v>
@@ -3994,7 +3987,7 @@
         <v>312160</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C102" s="6">
         <v>44305</v>
@@ -4005,14 +3998,14 @@
       <c r="E102" s="4">
         <v>2021</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>197</v>
+      <c r="F102" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I102" s="7">
         <v>1</v>
@@ -4023,7 +4016,7 @@
         <v>314070</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C103" s="6">
         <v>44305</v>
@@ -4034,14 +4027,14 @@
       <c r="E103" s="4">
         <v>2021</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>181</v>
+      <c r="F103" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I103" s="7">
         <v>1</v>
@@ -4052,7 +4045,7 @@
         <v>311580</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C104" s="6">
         <v>44306</v>
@@ -4063,14 +4056,14 @@
       <c r="E104" s="4">
         <v>2021</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>183</v>
+      <c r="F104" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I104" s="7">
         <v>1</v>
@@ -4081,7 +4074,7 @@
         <v>311930</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C105" s="6">
         <v>44306</v>
@@ -4092,14 +4085,14 @@
       <c r="E105" s="4">
         <v>2021</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>198</v>
+      <c r="F105" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I105" s="7">
         <v>1</v>
@@ -4110,7 +4103,7 @@
         <v>313620</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C106" s="6">
         <v>44307</v>
@@ -4121,14 +4114,14 @@
       <c r="E106" s="4">
         <v>2021</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>186</v>
+      <c r="F106" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I106" s="7">
         <v>1</v>
@@ -4139,7 +4132,7 @@
         <v>315220</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C107" s="6">
         <v>44309</v>
@@ -4150,14 +4143,14 @@
       <c r="E107" s="4">
         <v>2021</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>188</v>
+      <c r="F107" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I107" s="7">
         <v>1</v>
@@ -4168,7 +4161,7 @@
         <v>311300</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C108" s="6">
         <v>44311</v>
@@ -4179,14 +4172,14 @@
       <c r="E108" s="4">
         <v>2021</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>194</v>
+      <c r="F108" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I108" s="7">
         <v>1</v>
@@ -4197,7 +4190,7 @@
         <v>316840</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C109" s="6">
         <v>44311</v>
@@ -4208,14 +4201,14 @@
       <c r="E109" s="4">
         <v>2021</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>199</v>
+      <c r="F109" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I109" s="7">
         <v>1</v>
@@ -4226,7 +4219,7 @@
         <v>310620</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C110" s="6">
         <v>44312</v>
@@ -4237,14 +4230,14 @@
       <c r="E110" s="4">
         <v>2021</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>190</v>
+      <c r="F110" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I110" s="7">
         <v>1</v>
@@ -4255,7 +4248,7 @@
         <v>312410</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C111" s="6">
         <v>44314</v>
@@ -4266,14 +4259,14 @@
       <c r="E111" s="4">
         <v>2021</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>181</v>
+      <c r="F111" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I111" s="7">
         <v>1</v>
@@ -4284,7 +4277,7 @@
         <v>313710</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C112" s="6">
         <v>44314</v>
@@ -4295,14 +4288,14 @@
       <c r="E112" s="4">
         <v>2021</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>198</v>
+      <c r="F112" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I112" s="7">
         <v>1</v>
@@ -4313,7 +4306,7 @@
         <v>315460</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C113" s="6">
         <v>44314</v>
@@ -4324,14 +4317,14 @@
       <c r="E113" s="4">
         <v>2021</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>181</v>
+      <c r="F113" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I113" s="7">
         <v>1</v>
@@ -4342,7 +4335,7 @@
         <v>310670</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C114" s="6">
         <v>44316</v>
@@ -4353,14 +4346,14 @@
       <c r="E114" s="4">
         <v>2021</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>181</v>
+      <c r="F114" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I114" s="7">
         <v>1</v>
@@ -4371,7 +4364,7 @@
         <v>311860</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C115" s="6">
         <v>44317</v>
@@ -4382,14 +4375,14 @@
       <c r="E115" s="4">
         <v>2021</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>181</v>
+      <c r="F115" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I115" s="7">
         <v>1</v>
@@ -4400,7 +4393,7 @@
         <v>311880</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C116" s="6">
         <v>44318</v>
@@ -4411,14 +4404,14 @@
       <c r="E116" s="4">
         <v>2021</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>188</v>
+      <c r="F116" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I116" s="7">
         <v>1</v>
@@ -4429,7 +4422,7 @@
         <v>313520</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C117" s="6">
         <v>44318</v>
@@ -4440,14 +4433,14 @@
       <c r="E117" s="4">
         <v>2021</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>188</v>
+      <c r="F117" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I117" s="7">
         <v>1</v>
@@ -4458,7 +4451,7 @@
         <v>311880</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C118" s="6">
         <v>44318</v>
@@ -4469,14 +4462,14 @@
       <c r="E118" s="4">
         <v>2021</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>188</v>
+      <c r="F118" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -4487,7 +4480,7 @@
         <v>313920</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C119" s="6">
         <v>44321</v>
@@ -4498,14 +4491,14 @@
       <c r="E119" s="4">
         <v>2021</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>194</v>
+      <c r="F119" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -4516,7 +4509,7 @@
         <v>314630</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C120" s="6">
         <v>44321</v>
@@ -4527,14 +4520,14 @@
       <c r="E120" s="4">
         <v>2021</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>194</v>
+      <c r="F120" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -4545,7 +4538,7 @@
         <v>317020</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C121" s="6">
         <v>44324</v>
@@ -4556,14 +4549,14 @@
       <c r="E121" s="4">
         <v>2021</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>183</v>
+      <c r="F121" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I121" s="7">
         <v>1</v>
@@ -4574,7 +4567,7 @@
         <v>311300</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C122" s="6">
         <v>44325</v>
@@ -4585,14 +4578,14 @@
       <c r="E122" s="4">
         <v>2021</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>194</v>
+      <c r="F122" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I122" s="7">
         <v>1</v>
@@ -4603,7 +4596,7 @@
         <v>310620</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C123" s="6">
         <v>44326</v>
@@ -4614,14 +4607,14 @@
       <c r="E123" s="4">
         <v>2021</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>190</v>
+      <c r="F123" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I123" s="7">
         <v>1</v>
@@ -4632,7 +4625,7 @@
         <v>313380</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C124" s="6">
         <v>44326</v>
@@ -4643,14 +4636,14 @@
       <c r="E124" s="4">
         <v>2021</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>182</v>
+      <c r="F124" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I124" s="7">
         <v>1</v>
@@ -4661,7 +4654,7 @@
         <v>311270</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C125" s="6">
         <v>44328</v>
@@ -4672,14 +4665,14 @@
       <c r="E125" s="4">
         <v>2021</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>188</v>
+      <c r="F125" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I125" s="7">
         <v>1</v>
@@ -4690,7 +4683,7 @@
         <v>310670</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C126" s="6">
         <v>44331</v>
@@ -4701,14 +4694,14 @@
       <c r="E126" s="4">
         <v>2021</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>181</v>
+      <c r="F126" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I126" s="7">
         <v>1</v>
@@ -4719,7 +4712,7 @@
         <v>316990</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C127" s="6">
         <v>44331</v>
@@ -4730,14 +4723,14 @@
       <c r="E127" s="4">
         <v>2021</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>185</v>
+      <c r="F127" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I127" s="7">
         <v>1</v>
@@ -4748,7 +4741,7 @@
         <v>310160</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C128" s="6">
         <v>44331</v>
@@ -4759,14 +4752,14 @@
       <c r="E128" s="4">
         <v>2021</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>187</v>
+      <c r="F128" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I128" s="7">
         <v>1</v>
@@ -4777,7 +4770,7 @@
         <v>317020</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C129" s="6">
         <v>44331</v>
@@ -4788,14 +4781,14 @@
       <c r="E129" s="4">
         <v>2021</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>183</v>
+      <c r="F129" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I129" s="7">
         <v>1</v>
@@ -4806,7 +4799,7 @@
         <v>316805</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C130" s="6">
         <v>44332</v>
@@ -4817,14 +4810,14 @@
       <c r="E130" s="4">
         <v>2021</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>186</v>
+      <c r="F130" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I130" s="7">
         <v>1</v>
@@ -4835,7 +4828,7 @@
         <v>317040</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C131" s="6">
         <v>44332</v>
@@ -4846,14 +4839,14 @@
       <c r="E131" s="4">
         <v>2021</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>193</v>
+      <c r="F131" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I131" s="7">
         <v>1</v>
@@ -4864,7 +4857,7 @@
         <v>311300</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C132" s="6">
         <v>44334</v>
@@ -4875,14 +4868,14 @@
       <c r="E132" s="4">
         <v>2021</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>194</v>
+      <c r="F132" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I132" s="7">
         <v>1</v>
@@ -4893,7 +4886,7 @@
         <v>314480</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C133" s="6">
         <v>44335</v>
@@ -4904,14 +4897,14 @@
       <c r="E133" s="4">
         <v>2021</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>195</v>
+      <c r="F133" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I133" s="7">
         <v>1</v>
@@ -4922,7 +4915,7 @@
         <v>310620</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C134" s="6">
         <v>44336</v>
@@ -4933,14 +4926,14 @@
       <c r="E134" s="4">
         <v>2021</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>190</v>
+      <c r="F134" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I134" s="7">
         <v>1</v>
@@ -4951,7 +4944,7 @@
         <v>313010</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C135" s="6">
         <v>44336</v>
@@ -4962,14 +4955,14 @@
       <c r="E135" s="4">
         <v>2021</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>181</v>
+      <c r="F135" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I135" s="7">
         <v>1</v>
@@ -4980,7 +4973,7 @@
         <v>311110</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C136" s="6">
         <v>44337</v>
@@ -4991,14 +4984,14 @@
       <c r="E136" s="4">
         <v>2021</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>191</v>
+      <c r="F136" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
@@ -5009,7 +5002,7 @@
         <v>313510</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C137" s="6">
         <v>44338</v>
@@ -5020,14 +5013,14 @@
       <c r="E137" s="4">
         <v>2021</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>188</v>
+      <c r="F137" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
@@ -5038,7 +5031,7 @@
         <v>314800</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C138" s="6">
         <v>44339</v>
@@ -5049,14 +5042,14 @@
       <c r="E138" s="4">
         <v>2021</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>198</v>
+      <c r="F138" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I138" s="7">
         <v>2</v>
@@ -5067,7 +5060,7 @@
         <v>313380</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C139" s="6">
         <v>44343</v>
@@ -5078,14 +5071,14 @@
       <c r="E139" s="4">
         <v>2021</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>182</v>
+      <c r="F139" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -5096,7 +5089,7 @@
         <v>311340</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C140" s="6">
         <v>44344</v>
@@ -5107,14 +5100,14 @@
       <c r="E140" s="4">
         <v>2021</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>186</v>
+      <c r="F140" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I140" s="7">
         <v>1</v>
@@ -5125,7 +5118,7 @@
         <v>311650</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C141" s="6">
         <v>44344</v>
@@ -5136,14 +5129,14 @@
       <c r="E141" s="4">
         <v>2021</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>188</v>
+      <c r="F141" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I141" s="7">
         <v>1</v>
@@ -5154,7 +5147,7 @@
         <v>315460</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C142" s="6">
         <v>44345</v>
@@ -5165,14 +5158,14 @@
       <c r="E142" s="4">
         <v>2021</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>181</v>
+      <c r="F142" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I142" s="7">
         <v>1</v>
@@ -5183,7 +5176,7 @@
         <v>315120</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C143" s="6">
         <v>44345</v>
@@ -5194,14 +5187,14 @@
       <c r="E143" s="4">
         <v>2021</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>197</v>
+      <c r="F143" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I143" s="7">
         <v>1</v>
@@ -5212,7 +5205,7 @@
         <v>312980</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C144" s="6">
         <v>44346</v>
@@ -5223,14 +5216,14 @@
       <c r="E144" s="4">
         <v>2021</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>181</v>
+      <c r="F144" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I144" s="7">
         <v>1</v>
@@ -5241,7 +5234,7 @@
         <v>314610</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C145" s="6">
         <v>44347</v>
@@ -5252,14 +5245,14 @@
       <c r="E145" s="4">
         <v>2021</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>195</v>
+      <c r="F145" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
@@ -5270,7 +5263,7 @@
         <v>316800</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C146" s="6">
         <v>44348</v>
@@ -5281,14 +5274,14 @@
       <c r="E146" s="4">
         <v>2021</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>188</v>
+      <c r="F146" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
@@ -5299,7 +5292,7 @@
         <v>316720</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C147" s="6">
         <v>44349</v>
@@ -5310,14 +5303,14 @@
       <c r="E147" s="4">
         <v>2021</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>189</v>
+      <c r="F147" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I147" s="7">
         <v>2</v>
@@ -5328,7 +5321,7 @@
         <v>316990</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C148" s="6">
         <v>44350</v>
@@ -5339,14 +5332,14 @@
       <c r="E148" s="4">
         <v>2021</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>185</v>
+      <c r="F148" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I148" s="7">
         <v>1</v>
@@ -5357,7 +5350,7 @@
         <v>310620</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C149" s="6">
         <v>44352</v>
@@ -5368,14 +5361,14 @@
       <c r="E149" s="4">
         <v>2021</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>190</v>
+      <c r="F149" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I149" s="7">
         <v>1</v>
@@ -5386,7 +5379,7 @@
         <v>314800</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C150" s="6">
         <v>44352</v>
@@ -5397,14 +5390,14 @@
       <c r="E150" s="4">
         <v>2021</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>198</v>
+      <c r="F150" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
@@ -5415,7 +5408,7 @@
         <v>310620</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C151" s="6">
         <v>44353</v>
@@ -5426,14 +5419,14 @@
       <c r="E151" s="4">
         <v>2021</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>190</v>
+      <c r="F151" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
@@ -5444,7 +5437,7 @@
         <v>316250</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C152" s="6">
         <v>44353</v>
@@ -5455,14 +5448,14 @@
       <c r="E152" s="4">
         <v>2021</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>184</v>
+      <c r="F152" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I152" s="7">
         <v>1</v>
@@ -5473,7 +5466,7 @@
         <v>314290</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C153" s="6">
         <v>44356</v>
@@ -5484,14 +5477,14 @@
       <c r="E153" s="4">
         <v>2021</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>188</v>
+      <c r="F153" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I153" s="7">
         <v>2</v>
@@ -5502,7 +5495,7 @@
         <v>315700</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C154" s="6">
         <v>44359</v>
@@ -5513,14 +5506,14 @@
       <c r="E154" s="4">
         <v>2021</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>188</v>
+      <c r="F154" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I154" s="7">
         <v>1</v>
@@ -5531,7 +5524,7 @@
         <v>310520</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C155" s="6">
         <v>44361</v>
@@ -5542,14 +5535,14 @@
       <c r="E155" s="4">
         <v>2021</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>194</v>
+      <c r="F155" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I155" s="7">
         <v>1</v>
@@ -5560,7 +5553,7 @@
         <v>314700</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C156" s="6">
         <v>44362</v>
@@ -5571,14 +5564,14 @@
       <c r="E156" s="4">
         <v>2021</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>193</v>
+      <c r="F156" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I156" s="7">
         <v>1</v>
@@ -5589,7 +5582,7 @@
         <v>310620</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C157" s="6">
         <v>44364</v>
@@ -5600,14 +5593,14 @@
       <c r="E157" s="4">
         <v>2021</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>190</v>
+      <c r="F157" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I157" s="7">
         <v>1</v>
@@ -5618,7 +5611,7 @@
         <v>316930</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C158" s="6">
         <v>44367</v>
@@ -5629,14 +5622,14 @@
       <c r="E158" s="4">
         <v>2021</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>196</v>
+      <c r="F158" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -5647,7 +5640,7 @@
         <v>310620</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C159" s="6">
         <v>44368</v>
@@ -5658,14 +5651,14 @@
       <c r="E159" s="4">
         <v>2021</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>190</v>
+      <c r="F159" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I159" s="7">
         <v>1</v>
@@ -5676,7 +5669,7 @@
         <v>310620</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C160" s="6">
         <v>44376</v>
@@ -5687,14 +5680,14 @@
       <c r="E160" s="4">
         <v>2021</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>190</v>
+      <c r="F160" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I160" s="7">
         <v>1</v>
@@ -5705,7 +5698,7 @@
         <v>310170</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C161" s="6">
         <v>44377</v>
@@ -5716,14 +5709,14 @@
       <c r="E161" s="4">
         <v>2021</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>194</v>
+      <c r="F161" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I161" s="7">
         <v>2</v>
@@ -5734,7 +5727,7 @@
         <v>315250</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C162" s="6">
         <v>44382</v>
@@ -5745,14 +5738,14 @@
       <c r="E162" s="4">
         <v>2021</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>192</v>
+      <c r="F162" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I162" s="7">
         <v>1</v>
@@ -5763,7 +5756,7 @@
         <v>310930</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C163" s="6">
         <v>44383</v>
@@ -5774,14 +5767,14 @@
       <c r="E163" s="4">
         <v>2021</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>193</v>
+      <c r="F163" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I163" s="7">
         <v>1</v>
@@ -5792,7 +5785,7 @@
         <v>317020</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C164" s="6">
         <v>44385</v>
@@ -5803,14 +5796,14 @@
       <c r="E164" s="4">
         <v>2021</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>183</v>
+      <c r="F164" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I164" s="7">
         <v>1</v>
@@ -5821,7 +5814,7 @@
         <v>311860</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C165" s="6">
         <v>44387</v>
@@ -5832,14 +5825,14 @@
       <c r="E165" s="4">
         <v>2021</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>181</v>
+      <c r="F165" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I165" s="7">
         <v>1</v>
@@ -5850,7 +5843,7 @@
         <v>310500</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C166" s="6">
         <v>44388</v>
@@ -5861,14 +5854,14 @@
       <c r="E166" s="4">
         <v>2021</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>189</v>
+      <c r="F166" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I166" s="7">
         <v>1</v>
@@ -5879,7 +5872,7 @@
         <v>316410</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C167" s="6">
         <v>44388</v>
@@ -5890,14 +5883,14 @@
       <c r="E167" s="4">
         <v>2021</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>199</v>
+      <c r="F167" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I167" s="7">
         <v>1</v>
@@ -5908,7 +5901,7 @@
         <v>310560</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C168" s="6">
         <v>44389</v>
@@ -5919,14 +5912,14 @@
       <c r="E168" s="4">
         <v>2021</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>184</v>
+      <c r="F168" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I168" s="7">
         <v>1</v>
@@ -5937,7 +5930,7 @@
         <v>317100</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C169" s="6">
         <v>44389</v>
@@ -5948,14 +5941,14 @@
       <c r="E169" s="4">
         <v>2021</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>193</v>
+      <c r="F169" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I169" s="7">
         <v>1</v>
@@ -5966,7 +5959,7 @@
         <v>310670</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C170" s="6">
         <v>44393</v>
@@ -5977,14 +5970,14 @@
       <c r="E170" s="4">
         <v>2021</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>181</v>
+      <c r="F170" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I170" s="7">
         <v>1</v>
@@ -5995,7 +5988,7 @@
         <v>316990</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C171" s="6">
         <v>44394</v>
@@ -6006,14 +5999,14 @@
       <c r="E171" s="4">
         <v>2021</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>185</v>
+      <c r="F171" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -6024,7 +6017,7 @@
         <v>310620</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C172" s="6">
         <v>44394</v>
@@ -6035,14 +6028,14 @@
       <c r="E172" s="4">
         <v>2021</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>190</v>
+      <c r="F172" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I172" s="7">
         <v>1</v>
@@ -6053,7 +6046,7 @@
         <v>316250</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C173" s="6">
         <v>44395</v>
@@ -6064,14 +6057,14 @@
       <c r="E173" s="4">
         <v>2021</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>184</v>
+      <c r="F173" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I173" s="7">
         <v>1</v>
@@ -6082,7 +6075,7 @@
         <v>316720</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C174" s="6">
         <v>44395</v>
@@ -6093,14 +6086,14 @@
       <c r="E174" s="4">
         <v>2021</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>189</v>
+      <c r="F174" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I174" s="7">
         <v>1</v>
@@ -6111,7 +6104,7 @@
         <v>316560</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C175" s="6">
         <v>44398</v>
@@ -6122,14 +6115,14 @@
       <c r="E175" s="4">
         <v>2021</v>
       </c>
-      <c r="F175" s="4" t="s">
-        <v>185</v>
+      <c r="F175" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I175" s="7">
         <v>1</v>
@@ -6140,7 +6133,7 @@
         <v>312087</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C176" s="6">
         <v>44398</v>
@@ -6151,14 +6144,14 @@
       <c r="E176" s="4">
         <v>2021</v>
       </c>
-      <c r="F176" s="4" t="s">
-        <v>188</v>
+      <c r="F176" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -6169,7 +6162,7 @@
         <v>316720</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C177" s="6">
         <v>44398</v>
@@ -6180,14 +6173,14 @@
       <c r="E177" s="4">
         <v>2021</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>189</v>
+      <c r="F177" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I177" s="7">
         <v>1</v>
@@ -6198,7 +6191,7 @@
         <v>315895</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C178" s="6">
         <v>44400</v>
@@ -6209,14 +6202,14 @@
       <c r="E178" s="4">
         <v>2021</v>
       </c>
-      <c r="F178" s="4" t="s">
-        <v>186</v>
+      <c r="F178" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I178" s="7">
         <v>1</v>
@@ -6227,7 +6220,7 @@
         <v>311680</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C179" s="6">
         <v>44401</v>
@@ -6238,14 +6231,14 @@
       <c r="E179" s="4">
         <v>2021</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>199</v>
+      <c r="F179" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I179" s="7">
         <v>2</v>
@@ -6256,7 +6249,7 @@
         <v>314160</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C180" s="6">
         <v>44401</v>
@@ -6267,14 +6260,14 @@
       <c r="E180" s="4">
         <v>2021</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>185</v>
+      <c r="F180" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
@@ -6285,7 +6278,7 @@
         <v>310060</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C181" s="6">
         <v>44402</v>
@@ -6296,14 +6289,14 @@
       <c r="E181" s="4">
         <v>2021</v>
       </c>
-      <c r="F181" s="4" t="s">
-        <v>197</v>
+      <c r="F181" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
@@ -6314,7 +6307,7 @@
         <v>317020</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C182" s="6">
         <v>44404</v>
@@ -6325,14 +6318,14 @@
       <c r="E182" s="4">
         <v>2021</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>183</v>
+      <c r="F182" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I182" s="7">
         <v>1</v>
@@ -6343,7 +6336,7 @@
         <v>310350</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C183" s="6">
         <v>44406</v>
@@ -6354,14 +6347,14 @@
       <c r="E183" s="4">
         <v>2021</v>
       </c>
-      <c r="F183" s="4" t="s">
-        <v>183</v>
+      <c r="F183" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I183" s="7">
         <v>1</v>
@@ -6372,7 +6365,7 @@
         <v>315220</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C184" s="6">
         <v>44406</v>
@@ -6383,14 +6376,14 @@
       <c r="E184" s="4">
         <v>2021</v>
       </c>
-      <c r="F184" s="4" t="s">
-        <v>188</v>
+      <c r="F184" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I184" s="7">
         <v>1</v>
@@ -6401,7 +6394,7 @@
         <v>314690</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C185" s="6">
         <v>44408</v>
@@ -6412,14 +6405,14 @@
       <c r="E185" s="4">
         <v>2021</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>182</v>
+      <c r="F185" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I185" s="7">
         <v>1</v>
@@ -6430,7 +6423,7 @@
         <v>317020</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C186" s="6">
         <v>44408</v>
@@ -6441,14 +6434,14 @@
       <c r="E186" s="4">
         <v>2021</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>183</v>
+      <c r="F186" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I186" s="7">
         <v>1</v>
@@ -6459,7 +6452,7 @@
         <v>310620</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C187" s="6">
         <v>44408</v>
@@ -6470,14 +6463,14 @@
       <c r="E187" s="4">
         <v>2021</v>
       </c>
-      <c r="F187" s="4" t="s">
-        <v>190</v>
+      <c r="F187" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I187" s="7">
         <v>1</v>
@@ -6488,7 +6481,7 @@
         <v>313960</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C188" s="6">
         <v>44408</v>
@@ -6499,14 +6492,14 @@
       <c r="E188" s="4">
         <v>2021</v>
       </c>
-      <c r="F188" s="4" t="s">
-        <v>199</v>
+      <c r="F188" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I188" s="7">
         <v>1</v>
@@ -6517,7 +6510,7 @@
         <v>310945</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C189" s="6">
         <v>44409</v>
@@ -6528,14 +6521,14 @@
       <c r="E189" s="4">
         <v>2021</v>
       </c>
-      <c r="F189" s="4" t="s">
-        <v>193</v>
+      <c r="F189" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I189" s="7">
         <v>1</v>
@@ -6546,7 +6539,7 @@
         <v>310620</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C190" s="6">
         <v>44410</v>
@@ -6557,14 +6550,14 @@
       <c r="E190" s="4">
         <v>2021</v>
       </c>
-      <c r="F190" s="4" t="s">
-        <v>190</v>
+      <c r="F190" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I190" s="7">
         <v>1</v>
@@ -6575,7 +6568,7 @@
         <v>313670</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C191" s="6">
         <v>44415</v>
@@ -6586,14 +6579,14 @@
       <c r="E191" s="4">
         <v>2021</v>
       </c>
-      <c r="F191" s="4" t="s">
-        <v>185</v>
+      <c r="F191" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I191" s="7">
         <v>1</v>
@@ -6604,7 +6597,7 @@
         <v>314330</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C192" s="6">
         <v>44416</v>
@@ -6615,14 +6608,14 @@
       <c r="E192" s="4">
         <v>2021</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>188</v>
+      <c r="F192" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I192" s="7">
         <v>1</v>
@@ -6633,7 +6626,7 @@
         <v>310620</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C193" s="6">
         <v>44417</v>
@@ -6644,14 +6637,14 @@
       <c r="E193" s="4">
         <v>2021</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>190</v>
+      <c r="F193" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I193" s="7">
         <v>1</v>
@@ -6662,7 +6655,7 @@
         <v>311930</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C194" s="6">
         <v>44417</v>
@@ -6673,14 +6666,14 @@
       <c r="E194" s="4">
         <v>2021</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>198</v>
+      <c r="F194" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I194" s="7">
         <v>1</v>
@@ -6691,7 +6684,7 @@
         <v>316810</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C195" s="6">
         <v>44417</v>
@@ -6702,14 +6695,14 @@
       <c r="E195" s="4">
         <v>2021</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>191</v>
+      <c r="F195" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I195" s="7">
         <v>1</v>
@@ -6720,7 +6713,7 @@
         <v>314310</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C196" s="6">
         <v>44418</v>
@@ -6731,14 +6724,14 @@
       <c r="E196" s="4">
         <v>2021</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>198</v>
+      <c r="F196" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I196" s="7">
         <v>1</v>
@@ -6749,7 +6742,7 @@
         <v>315460</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C197" s="6">
         <v>44418</v>
@@ -6760,14 +6753,14 @@
       <c r="E197" s="4">
         <v>2021</v>
       </c>
-      <c r="F197" s="4" t="s">
-        <v>181</v>
+      <c r="F197" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
@@ -6778,7 +6771,7 @@
         <v>314620</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C198" s="6">
         <v>44419</v>
@@ -6789,14 +6782,14 @@
       <c r="E198" s="4">
         <v>2021</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>194</v>
+      <c r="F198" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
@@ -6807,7 +6800,7 @@
         <v>313130</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C199" s="6">
         <v>44419</v>
@@ -6818,14 +6811,14 @@
       <c r="E199" s="4">
         <v>2021</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>186</v>
+      <c r="F199" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
@@ -6836,7 +6829,7 @@
         <v>317120</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C200" s="6">
         <v>44420</v>
@@ -6847,14 +6840,14 @@
       <c r="E200" s="4">
         <v>2021</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>195</v>
+      <c r="F200" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
@@ -6865,7 +6858,7 @@
         <v>311840</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C201" s="6">
         <v>44421</v>
@@ -6876,14 +6869,14 @@
       <c r="E201" s="4">
         <v>2021</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>199</v>
+      <c r="F201" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I201" s="7">
         <v>1</v>
@@ -6894,7 +6887,7 @@
         <v>315780</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C202" s="6">
         <v>44422</v>
@@ -6905,14 +6898,14 @@
       <c r="E202" s="4">
         <v>2021</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>195</v>
+      <c r="F202" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I202" s="7">
         <v>1</v>
@@ -6923,7 +6916,7 @@
         <v>310110</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C203" s="6">
         <v>44423</v>
@@ -6934,14 +6927,14 @@
       <c r="E203" s="4">
         <v>2021</v>
       </c>
-      <c r="F203" s="4" t="s">
-        <v>199</v>
+      <c r="F203" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I203" s="7">
         <v>1</v>
@@ -6952,7 +6945,7 @@
         <v>314390</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C204" s="6">
         <v>44423</v>
@@ -6963,14 +6956,14 @@
       <c r="E204" s="4">
         <v>2021</v>
       </c>
-      <c r="F204" s="4" t="s">
-        <v>185</v>
+      <c r="F204" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I204" s="7">
         <v>1</v>
@@ -6981,7 +6974,7 @@
         <v>310160</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C205" s="6">
         <v>44426</v>
@@ -6992,14 +6985,14 @@
       <c r="E205" s="4">
         <v>2021</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>187</v>
+      <c r="F205" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I205" s="7">
         <v>1</v>
@@ -7010,7 +7003,7 @@
         <v>310620</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C206" s="6">
         <v>44429</v>
@@ -7021,14 +7014,14 @@
       <c r="E206" s="4">
         <v>2021</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>190</v>
+      <c r="F206" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I206" s="7">
         <v>1</v>
@@ -7039,7 +7032,7 @@
         <v>311860</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C207" s="6">
         <v>44429</v>
@@ -7050,14 +7043,14 @@
       <c r="E207" s="4">
         <v>2021</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>181</v>
+      <c r="F207" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I207" s="7">
         <v>1</v>
@@ -7068,7 +7061,7 @@
         <v>310570</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C208" s="6">
         <v>44430</v>
@@ -7079,14 +7072,14 @@
       <c r="E208" s="4">
         <v>2021</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>186</v>
+      <c r="F208" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I208" s="7">
         <v>1</v>
@@ -7097,7 +7090,7 @@
         <v>310620</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C209" s="6">
         <v>44432</v>
@@ -7108,14 +7101,14 @@
       <c r="E209" s="4">
         <v>2021</v>
       </c>
-      <c r="F209" s="4" t="s">
-        <v>190</v>
+      <c r="F209" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I209" s="7">
         <v>1</v>
@@ -7126,7 +7119,7 @@
         <v>310670</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C210" s="6">
         <v>44433</v>
@@ -7137,14 +7130,14 @@
       <c r="E210" s="4">
         <v>2021</v>
       </c>
-      <c r="F210" s="4" t="s">
-        <v>181</v>
+      <c r="F210" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I210" s="7">
         <v>1</v>
@@ -7155,7 +7148,7 @@
         <v>312120</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C211" s="6">
         <v>44435</v>
@@ -7166,14 +7159,14 @@
       <c r="E211" s="4">
         <v>2021</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>187</v>
+      <c r="F211" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I211" s="7">
         <v>1</v>
@@ -7184,7 +7177,7 @@
         <v>311120</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C212" s="6">
         <v>44436</v>
@@ -7195,14 +7188,14 @@
       <c r="E212" s="4">
         <v>2021</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>196</v>
+      <c r="F212" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I212" s="7">
         <v>1</v>
@@ -7213,7 +7206,7 @@
         <v>310620</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C213" s="6">
         <v>44436</v>
@@ -7224,14 +7217,14 @@
       <c r="E213" s="4">
         <v>2021</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>190</v>
+      <c r="F213" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I213" s="7">
         <v>2</v>
@@ -7242,7 +7235,7 @@
         <v>313260</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C214" s="6">
         <v>44437</v>
@@ -7253,14 +7246,14 @@
       <c r="E214" s="4">
         <v>2021</v>
       </c>
-      <c r="F214" s="4" t="s">
-        <v>185</v>
+      <c r="F214" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I214" s="7">
         <v>1</v>
@@ -7271,7 +7264,7 @@
         <v>314610</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C215" s="6">
         <v>44438</v>
@@ -7282,14 +7275,14 @@
       <c r="E215" s="4">
         <v>2021</v>
       </c>
-      <c r="F215" s="4" t="s">
-        <v>195</v>
+      <c r="F215" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I215" s="7">
         <v>1</v>
@@ -7300,7 +7293,7 @@
         <v>316370</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C216" s="6">
         <v>44438</v>
@@ -7311,14 +7304,14 @@
       <c r="E216" s="4">
         <v>2021</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>192</v>
+      <c r="F216" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I216" s="7">
         <v>1</v>
@@ -7329,7 +7322,7 @@
         <v>310620</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C217" s="6">
         <v>44439</v>
@@ -7340,14 +7333,14 @@
       <c r="E217" s="4">
         <v>2021</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>190</v>
+      <c r="F217" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I217" s="7">
         <v>1</v>
@@ -7358,7 +7351,7 @@
         <v>310620</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C218" s="6">
         <v>44440</v>
@@ -7369,14 +7362,14 @@
       <c r="E218" s="4">
         <v>2021</v>
       </c>
-      <c r="F218" s="4" t="s">
-        <v>190</v>
+      <c r="F218" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I218" s="7">
         <v>1</v>
@@ -7387,7 +7380,7 @@
         <v>312320</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C219" s="6">
         <v>44443</v>
@@ -7398,14 +7391,14 @@
       <c r="E219" s="4">
         <v>2021</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>182</v>
+      <c r="F219" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I219" s="7">
         <v>1</v>
@@ -7416,7 +7409,7 @@
         <v>316260</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C220" s="6">
         <v>44446</v>
@@ -7427,14 +7420,14 @@
       <c r="E220" s="4">
         <v>2021</v>
       </c>
-      <c r="F220" s="4" t="s">
-        <v>186</v>
+      <c r="F220" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I220" s="7">
         <v>1</v>
@@ -7445,7 +7438,7 @@
         <v>310620</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C221" s="6">
         <v>44448</v>
@@ -7456,14 +7449,14 @@
       <c r="E221" s="4">
         <v>2021</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>190</v>
+      <c r="F221" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I221" s="7">
         <v>1</v>
@@ -7474,7 +7467,7 @@
         <v>312230</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C222" s="6">
         <v>44449</v>
@@ -7485,14 +7478,14 @@
       <c r="E222" s="4">
         <v>2021</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>182</v>
+      <c r="F222" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I222" s="7">
         <v>1</v>
@@ -7503,7 +7496,7 @@
         <v>313760</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C223" s="6">
         <v>44450</v>
@@ -7514,14 +7507,14 @@
       <c r="E223" s="4">
         <v>2021</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>195</v>
+      <c r="F223" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I223" s="7">
         <v>1</v>
@@ -7532,7 +7525,7 @@
         <v>311940</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C224" s="6">
         <v>44451</v>
@@ -7543,14 +7536,14 @@
       <c r="E224" s="4">
         <v>2021</v>
       </c>
-      <c r="F224" s="4" t="s">
-        <v>186</v>
+      <c r="F224" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I224" s="7">
         <v>1</v>
@@ -7561,7 +7554,7 @@
         <v>313220</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C225" s="6">
         <v>44451</v>
@@ -7572,14 +7565,14 @@
       <c r="E225" s="4">
         <v>2021</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>181</v>
+      <c r="F225" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I225" s="7">
         <v>1</v>
@@ -7590,7 +7583,7 @@
         <v>315210</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C226" s="6">
         <v>44453</v>
@@ -7601,14 +7594,14 @@
       <c r="E226" s="4">
         <v>2021</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>186</v>
+      <c r="F226" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I226" s="7">
         <v>1</v>
@@ -7619,7 +7612,7 @@
         <v>312720</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C227" s="6">
         <v>44454</v>
@@ -7630,14 +7623,14 @@
       <c r="E227" s="4">
         <v>2021</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>189</v>
+      <c r="F227" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I227" s="7">
         <v>1</v>
@@ -7648,7 +7641,7 @@
         <v>312160</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C228" s="6">
         <v>44455</v>
@@ -7659,14 +7652,14 @@
       <c r="E228" s="4">
         <v>2021</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>197</v>
+      <c r="F228" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I228" s="7">
         <v>1</v>
@@ -7677,7 +7670,7 @@
         <v>314810</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C229" s="6">
         <v>44456</v>
@@ -7688,14 +7681,14 @@
       <c r="E229" s="4">
         <v>2021</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>198</v>
+      <c r="F229" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I229" s="7">
         <v>1</v>
@@ -7706,7 +7699,7 @@
         <v>310220</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C230" s="6">
         <v>44457</v>
@@ -7717,14 +7710,14 @@
       <c r="E230" s="4">
         <v>2021</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>199</v>
+      <c r="F230" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I230" s="7">
         <v>1</v>
@@ -7735,7 +7728,7 @@
         <v>313270</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C231" s="6">
         <v>44458</v>
@@ -7746,14 +7739,14 @@
       <c r="E231" s="4">
         <v>2021</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>194</v>
+      <c r="F231" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I231" s="7">
         <v>1</v>
@@ -7764,7 +7757,7 @@
         <v>310620</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C232" s="6">
         <v>44459</v>
@@ -7775,14 +7768,14 @@
       <c r="E232" s="4">
         <v>2021</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>190</v>
+      <c r="F232" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I232" s="7">
         <v>1</v>
@@ -7793,7 +7786,7 @@
         <v>314310</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C233" s="6">
         <v>44459</v>
@@ -7804,14 +7797,14 @@
       <c r="E233" s="4">
         <v>2021</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>198</v>
+      <c r="F233" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I233" s="7">
         <v>1</v>
@@ -7822,7 +7815,7 @@
         <v>316695</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C234" s="6">
         <v>44462</v>
@@ -7833,14 +7826,14 @@
       <c r="E234" s="4">
         <v>2021</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>188</v>
+      <c r="F234" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I234" s="7">
         <v>1</v>
@@ -7851,7 +7844,7 @@
         <v>317020</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C235" s="6">
         <v>44462</v>
@@ -7862,14 +7855,14 @@
       <c r="E235" s="4">
         <v>2021</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>183</v>
+      <c r="F235" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I235" s="7">
         <v>1</v>
@@ -7880,7 +7873,7 @@
         <v>312410</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C236" s="6">
         <v>44462</v>
@@ -7891,14 +7884,14 @@
       <c r="E236" s="4">
         <v>2021</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>181</v>
+      <c r="F236" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I236" s="7">
         <v>2</v>
@@ -7909,7 +7902,7 @@
         <v>313430</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C237" s="6">
         <v>44463</v>
@@ -7920,14 +7913,14 @@
       <c r="E237" s="4">
         <v>2021</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>196</v>
+      <c r="F237" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I237" s="7">
         <v>1</v>
@@ -7938,7 +7931,7 @@
         <v>311860</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C238" s="6">
         <v>44464</v>
@@ -7949,14 +7942,14 @@
       <c r="E238" s="4">
         <v>2021</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>181</v>
+      <c r="F238" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
@@ -7967,7 +7960,7 @@
         <v>316070</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C239" s="6">
         <v>44464</v>
@@ -7978,14 +7971,14 @@
       <c r="E239" s="4">
         <v>2021</v>
       </c>
-      <c r="F239" s="4" t="s">
-        <v>184</v>
+      <c r="F239" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I239" s="7">
         <v>1</v>
@@ -7996,7 +7989,7 @@
         <v>317040</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C240" s="6">
         <v>44464</v>
@@ -8007,14 +8000,14 @@
       <c r="E240" s="4">
         <v>2021</v>
       </c>
-      <c r="F240" s="4" t="s">
-        <v>193</v>
+      <c r="F240" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -8025,7 +8018,7 @@
         <v>311020</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C241" s="6">
         <v>44465</v>
@@ -8036,14 +8029,14 @@
       <c r="E241" s="4">
         <v>2021</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>185</v>
+      <c r="F241" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I241" s="7">
         <v>1</v>
@@ -8054,7 +8047,7 @@
         <v>310620</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C242" s="6">
         <v>44467</v>
@@ -8065,14 +8058,14 @@
       <c r="E242" s="4">
         <v>2021</v>
       </c>
-      <c r="F242" s="4" t="s">
-        <v>190</v>
+      <c r="F242" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I242" s="7">
         <v>1</v>
@@ -8083,7 +8076,7 @@
         <v>313320</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C243" s="6">
         <v>44468</v>
@@ -8094,14 +8087,14 @@
       <c r="E243" s="4">
         <v>2021</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>199</v>
+      <c r="F243" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I243" s="7">
         <v>1</v>
@@ -8112,7 +8105,7 @@
         <v>313580</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C244" s="6">
         <v>44468</v>
@@ -8123,14 +8116,14 @@
       <c r="E244" s="4">
         <v>2021</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>194</v>
+      <c r="F244" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I244" s="7">
         <v>1</v>
@@ -8141,7 +8134,7 @@
         <v>314620</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C245" s="6">
         <v>44469</v>
@@ -8152,14 +8145,14 @@
       <c r="E245" s="4">
         <v>2021</v>
       </c>
-      <c r="F245" s="4" t="s">
-        <v>194</v>
+      <c r="F245" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I245" s="7">
         <v>1</v>
@@ -8170,7 +8163,7 @@
         <v>310670</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C246" s="6">
         <v>44471</v>
@@ -8181,14 +8174,14 @@
       <c r="E246" s="4">
         <v>2021</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>181</v>
+      <c r="F246" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I246" s="7">
         <v>1</v>
@@ -8199,7 +8192,7 @@
         <v>310630</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C247" s="6">
         <v>44472</v>
@@ -8210,14 +8203,14 @@
       <c r="E247" s="4">
         <v>2021</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>186</v>
+      <c r="F247" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I247" s="7">
         <v>1</v>
@@ -8228,7 +8221,7 @@
         <v>312125</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C248" s="6">
         <v>44474</v>
@@ -8239,14 +8232,14 @@
       <c r="E248" s="4">
         <v>2021</v>
       </c>
-      <c r="F248" s="4" t="s">
-        <v>191</v>
+      <c r="F248" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I248" s="7">
         <v>1</v>
@@ -8257,7 +8250,7 @@
         <v>310620</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C249" s="6">
         <v>44477</v>
@@ -8268,14 +8261,14 @@
       <c r="E249" s="4">
         <v>2021</v>
       </c>
-      <c r="F249" s="4" t="s">
-        <v>190</v>
+      <c r="F249" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I249" s="7">
         <v>1</v>
@@ -8286,7 +8279,7 @@
         <v>313170</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C250" s="6">
         <v>44479</v>
@@ -8297,14 +8290,14 @@
       <c r="E250" s="4">
         <v>2021</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>186</v>
+      <c r="F250" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I250" s="7">
         <v>1</v>
@@ -8315,7 +8308,7 @@
         <v>314810</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C251" s="6">
         <v>44479</v>
@@ -8326,14 +8319,14 @@
       <c r="E251" s="4">
         <v>2021</v>
       </c>
-      <c r="F251" s="4" t="s">
-        <v>198</v>
+      <c r="F251" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I251" s="7">
         <v>1</v>
@@ -8344,7 +8337,7 @@
         <v>311860</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C252" s="6">
         <v>44480</v>
@@ -8355,14 +8348,14 @@
       <c r="E252" s="4">
         <v>2021</v>
       </c>
-      <c r="F252" s="4" t="s">
-        <v>181</v>
+      <c r="F252" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I252" s="7">
         <v>1</v>
@@ -8373,7 +8366,7 @@
         <v>313130</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C253" s="6">
         <v>44481</v>
@@ -8384,14 +8377,14 @@
       <c r="E253" s="4">
         <v>2021</v>
       </c>
-      <c r="F253" s="4" t="s">
-        <v>186</v>
+      <c r="F253" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I253" s="7">
         <v>1</v>
@@ -8402,7 +8395,7 @@
         <v>313430</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C254" s="6">
         <v>44481</v>
@@ -8413,14 +8406,14 @@
       <c r="E254" s="4">
         <v>2021</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>196</v>
+      <c r="F254" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I254" s="7">
         <v>1</v>
@@ -8431,7 +8424,7 @@
         <v>315445</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C255" s="6">
         <v>44481</v>
@@ -8442,14 +8435,14 @@
       <c r="E255" s="4">
         <v>2021</v>
       </c>
-      <c r="F255" s="4" t="s">
-        <v>193</v>
+      <c r="F255" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I255" s="7">
         <v>1</v>
@@ -8460,7 +8453,7 @@
         <v>317020</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C256" s="6">
         <v>44483</v>
@@ -8471,14 +8464,14 @@
       <c r="E256" s="4">
         <v>2021</v>
       </c>
-      <c r="F256" s="4" t="s">
-        <v>183</v>
+      <c r="F256" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I256" s="7">
         <v>1</v>
@@ -8489,7 +8482,7 @@
         <v>313170</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C257" s="6">
         <v>44483</v>
@@ -8500,14 +8493,14 @@
       <c r="E257" s="4">
         <v>2021</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>186</v>
+      <c r="F257" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I257" s="7">
         <v>1</v>
@@ -8518,7 +8511,7 @@
         <v>315250</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C258" s="6">
         <v>44484</v>
@@ -8529,14 +8522,14 @@
       <c r="E258" s="4">
         <v>2021</v>
       </c>
-      <c r="F258" s="4" t="s">
-        <v>192</v>
+      <c r="F258" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I258" s="7">
         <v>2</v>
@@ -8547,7 +8540,7 @@
         <v>310260</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C259" s="6">
         <v>44485</v>
@@ -8558,14 +8551,14 @@
       <c r="E259" s="4">
         <v>2021</v>
       </c>
-      <c r="F259" s="4" t="s">
-        <v>187</v>
+      <c r="F259" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I259" s="7">
         <v>1</v>
@@ -8576,7 +8569,7 @@
         <v>310620</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C260" s="6">
         <v>44486</v>
@@ -8587,14 +8580,14 @@
       <c r="E260" s="4">
         <v>2021</v>
       </c>
-      <c r="F260" s="4" t="s">
-        <v>190</v>
+      <c r="F260" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I260" s="7">
         <v>1</v>
@@ -8605,7 +8598,7 @@
         <v>315780</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C261" s="6">
         <v>44487</v>
@@ -8616,14 +8609,14 @@
       <c r="E261" s="4">
         <v>2021</v>
       </c>
-      <c r="F261" s="4" t="s">
-        <v>195</v>
+      <c r="F261" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I261" s="7">
         <v>1</v>
@@ -8634,7 +8627,7 @@
         <v>310620</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C262" s="6">
         <v>44488</v>
@@ -8645,14 +8638,14 @@
       <c r="E262" s="4">
         <v>2021</v>
       </c>
-      <c r="F262" s="4" t="s">
-        <v>190</v>
+      <c r="F262" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I262" s="7">
         <v>1</v>
@@ -8663,7 +8656,7 @@
         <v>311860</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C263" s="6">
         <v>44488</v>
@@ -8674,14 +8667,14 @@
       <c r="E263" s="4">
         <v>2021</v>
       </c>
-      <c r="F263" s="4" t="s">
-        <v>181</v>
+      <c r="F263" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I263" s="7">
         <v>1</v>
@@ -8692,7 +8685,7 @@
         <v>314080</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C264" s="6">
         <v>44488</v>
@@ -8703,14 +8696,14 @@
       <c r="E264" s="4">
         <v>2021</v>
       </c>
-      <c r="F264" s="4" t="s">
-        <v>185</v>
+      <c r="F264" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I264" s="7">
         <v>1</v>
@@ -8721,7 +8714,7 @@
         <v>310390</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C265" s="6">
         <v>44494</v>
@@ -8732,14 +8725,14 @@
       <c r="E265" s="4">
         <v>2021</v>
       </c>
-      <c r="F265" s="4" t="s">
-        <v>182</v>
+      <c r="F265" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I265" s="7">
         <v>1</v>
@@ -8750,7 +8743,7 @@
         <v>310620</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C266" s="6">
         <v>44494</v>
@@ -8761,14 +8754,14 @@
       <c r="E266" s="4">
         <v>2021</v>
       </c>
-      <c r="F266" s="4" t="s">
-        <v>190</v>
+      <c r="F266" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I266" s="7">
         <v>1</v>
@@ -8779,7 +8772,7 @@
         <v>313670</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C267" s="6">
         <v>44495</v>
@@ -8790,14 +8783,14 @@
       <c r="E267" s="4">
         <v>2021</v>
       </c>
-      <c r="F267" s="4" t="s">
-        <v>185</v>
+      <c r="F267" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I267" s="7">
         <v>1</v>
@@ -8808,7 +8801,7 @@
         <v>313670</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C268" s="6">
         <v>44499</v>
@@ -8819,14 +8812,14 @@
       <c r="E268" s="4">
         <v>2021</v>
       </c>
-      <c r="F268" s="4" t="s">
-        <v>185</v>
+      <c r="F268" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I268" s="7">
         <v>1</v>
@@ -8837,7 +8830,7 @@
         <v>313750</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C269" s="6">
         <v>44499</v>
@@ -8848,14 +8841,14 @@
       <c r="E269" s="4">
         <v>2021</v>
       </c>
-      <c r="F269" s="4" t="s">
-        <v>198</v>
+      <c r="F269" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I269" s="7">
         <v>1</v>
@@ -8866,7 +8859,7 @@
         <v>316990</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C270" s="6">
         <v>44505</v>
@@ -8877,14 +8870,14 @@
       <c r="E270" s="4">
         <v>2021</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>185</v>
+      <c r="F270" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I270" s="7">
         <v>1</v>
@@ -8895,7 +8888,7 @@
         <v>313760</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C271" s="6">
         <v>44506</v>
@@ -8906,14 +8899,14 @@
       <c r="E271" s="4">
         <v>2021</v>
       </c>
-      <c r="F271" s="4" t="s">
-        <v>195</v>
+      <c r="F271" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I271" s="7">
         <v>1</v>
@@ -8924,7 +8917,7 @@
         <v>310620</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C272" s="6">
         <v>44507</v>
@@ -8935,14 +8928,14 @@
       <c r="E272" s="4">
         <v>2021</v>
       </c>
-      <c r="F272" s="4" t="s">
-        <v>190</v>
+      <c r="F272" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I272" s="7">
         <v>2</v>
@@ -8953,7 +8946,7 @@
         <v>313545</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C273" s="6">
         <v>44507</v>
@@ -8964,14 +8957,14 @@
       <c r="E273" s="4">
         <v>2021</v>
       </c>
-      <c r="F273" s="4" t="s">
-        <v>197</v>
+      <c r="F273" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I273" s="7">
         <v>1</v>
@@ -8982,7 +8975,7 @@
         <v>313420</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C274" s="6">
         <v>44510</v>
@@ -8993,14 +8986,14 @@
       <c r="E274" s="4">
         <v>2021</v>
       </c>
-      <c r="F274" s="4" t="s">
-        <v>183</v>
+      <c r="F274" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I274" s="7">
         <v>1</v>
@@ -9011,7 +9004,7 @@
         <v>310480</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C275" s="6">
         <v>44510</v>
@@ -9022,14 +9015,14 @@
       <c r="E275" s="4">
         <v>2021</v>
       </c>
-      <c r="F275" s="4" t="s">
-        <v>197</v>
+      <c r="F275" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I275" s="7">
         <v>1</v>
@@ -9040,7 +9033,7 @@
         <v>312410</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C276" s="6">
         <v>44512</v>
@@ -9051,14 +9044,14 @@
       <c r="E276" s="4">
         <v>2021</v>
       </c>
-      <c r="F276" s="4" t="s">
-        <v>181</v>
+      <c r="F276" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I276" s="7">
         <v>1</v>
@@ -9069,7 +9062,7 @@
         <v>310160</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C277" s="6">
         <v>44514</v>
@@ -9080,14 +9073,14 @@
       <c r="E277" s="4">
         <v>2021</v>
       </c>
-      <c r="F277" s="4" t="s">
-        <v>187</v>
+      <c r="F277" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I277" s="7">
         <v>1</v>
@@ -9098,7 +9091,7 @@
         <v>310620</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C278" s="6">
         <v>44514</v>
@@ -9109,14 +9102,14 @@
       <c r="E278" s="4">
         <v>2021</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>190</v>
+      <c r="F278" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I278" s="7">
         <v>1</v>
@@ -9127,7 +9120,7 @@
         <v>313420</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C279" s="6">
         <v>44514</v>
@@ -9138,14 +9131,14 @@
       <c r="E279" s="4">
         <v>2021</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>183</v>
+      <c r="F279" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I279" s="7">
         <v>1</v>
@@ -9156,7 +9149,7 @@
         <v>310620</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C280" s="6">
         <v>44517</v>
@@ -9167,14 +9160,14 @@
       <c r="E280" s="4">
         <v>2021</v>
       </c>
-      <c r="F280" s="4" t="s">
-        <v>190</v>
+      <c r="F280" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I280" s="7">
         <v>1</v>
@@ -9185,7 +9178,7 @@
         <v>313665</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C281" s="6">
         <v>44517</v>
@@ -9196,14 +9189,14 @@
       <c r="E281" s="4">
         <v>2021</v>
       </c>
-      <c r="F281" s="4" t="s">
-        <v>181</v>
+      <c r="F281" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I281" s="7">
         <v>1</v>
@@ -9214,7 +9207,7 @@
         <v>315140</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C282" s="6">
         <v>44518</v>
@@ -9225,14 +9218,14 @@
       <c r="E282" s="4">
         <v>2021</v>
       </c>
-      <c r="F282" s="4" t="s">
-        <v>182</v>
+      <c r="F282" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I282" s="7">
         <v>1</v>
@@ -9243,7 +9236,7 @@
         <v>310160</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C283" s="6">
         <v>44521</v>
@@ -9254,14 +9247,14 @@
       <c r="E283" s="4">
         <v>2021</v>
       </c>
-      <c r="F283" s="4" t="s">
-        <v>187</v>
+      <c r="F283" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I283" s="7">
         <v>1</v>
@@ -9272,7 +9265,7 @@
         <v>310860</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C284" s="6">
         <v>44523</v>
@@ -9283,14 +9276,14 @@
       <c r="E284" s="4">
         <v>2021</v>
       </c>
-      <c r="F284" s="4" t="s">
-        <v>188</v>
+      <c r="F284" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I284" s="7">
         <v>1</v>
@@ -9301,7 +9294,7 @@
         <v>314537</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C285" s="6">
         <v>44526</v>
@@ -9312,14 +9305,14 @@
       <c r="E285" s="4">
         <v>2021</v>
       </c>
-      <c r="F285" s="4" t="s">
-        <v>188</v>
+      <c r="F285" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I285" s="7">
         <v>1</v>
@@ -9330,7 +9323,7 @@
         <v>315020</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C286" s="6">
         <v>44528</v>
@@ -9341,14 +9334,14 @@
       <c r="E286" s="4">
         <v>2021</v>
       </c>
-      <c r="F286" s="4" t="s">
-        <v>186</v>
+      <c r="F286" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I286" s="7">
         <v>1</v>
@@ -9359,7 +9352,7 @@
         <v>310620</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C287" s="6">
         <v>44530</v>
@@ -9370,14 +9363,14 @@
       <c r="E287" s="4">
         <v>2021</v>
       </c>
-      <c r="F287" s="4" t="s">
-        <v>190</v>
+      <c r="F287" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I287" s="7">
         <v>1</v>
@@ -9388,7 +9381,7 @@
         <v>311860</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C288" s="6">
         <v>44531</v>
@@ -9399,14 +9392,14 @@
       <c r="E288" s="4">
         <v>2021</v>
       </c>
-      <c r="F288" s="4" t="s">
-        <v>181</v>
+      <c r="F288" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I288" s="7">
         <v>1</v>
@@ -9417,7 +9410,7 @@
         <v>313480</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C289" s="6">
         <v>44534</v>
@@ -9428,14 +9421,14 @@
       <c r="E289" s="4">
         <v>2021</v>
       </c>
-      <c r="F289" s="4" t="s">
-        <v>187</v>
+      <c r="F289" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I289" s="7">
         <v>1</v>
@@ -9446,7 +9439,7 @@
         <v>316990</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C290" s="6">
         <v>44534</v>
@@ -9457,14 +9450,14 @@
       <c r="E290" s="4">
         <v>2021</v>
       </c>
-      <c r="F290" s="4" t="s">
-        <v>185</v>
+      <c r="F290" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I290" s="7">
         <v>1</v>
@@ -9475,7 +9468,7 @@
         <v>315420</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C291" s="6">
         <v>44534</v>
@@ -9486,14 +9479,14 @@
       <c r="E291" s="4">
         <v>2021</v>
       </c>
-      <c r="F291" s="4" t="s">
-        <v>184</v>
+      <c r="F291" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I291" s="7">
         <v>1</v>
@@ -9504,7 +9497,7 @@
         <v>312160</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C292" s="6">
         <v>44535</v>
@@ -9515,14 +9508,14 @@
       <c r="E292" s="4">
         <v>2021</v>
       </c>
-      <c r="F292" s="4" t="s">
-        <v>197</v>
+      <c r="F292" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I292" s="7">
         <v>1</v>
@@ -9533,7 +9526,7 @@
         <v>314390</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C293" s="6">
         <v>44536</v>
@@ -9544,14 +9537,14 @@
       <c r="E293" s="4">
         <v>2021</v>
       </c>
-      <c r="F293" s="4" t="s">
-        <v>185</v>
+      <c r="F293" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I293" s="7">
         <v>1</v>
@@ -9562,7 +9555,7 @@
         <v>313750</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C294" s="6">
         <v>44537</v>
@@ -9573,14 +9566,14 @@
       <c r="E294" s="4">
         <v>2021</v>
       </c>
-      <c r="F294" s="4" t="s">
-        <v>198</v>
+      <c r="F294" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I294" s="7">
         <v>1</v>
@@ -9591,7 +9584,7 @@
         <v>314090</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C295" s="6">
         <v>44537</v>
@@ -9602,14 +9595,14 @@
       <c r="E295" s="4">
         <v>2021</v>
       </c>
-      <c r="F295" s="4" t="s">
-        <v>186</v>
+      <c r="F295" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I295" s="7">
         <v>1</v>
@@ -9620,7 +9613,7 @@
         <v>310620</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C296" s="6">
         <v>44538</v>
@@ -9631,14 +9624,14 @@
       <c r="E296" s="4">
         <v>2021</v>
       </c>
-      <c r="F296" s="4" t="s">
-        <v>190</v>
+      <c r="F296" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I296" s="7">
         <v>1</v>
@@ -9649,7 +9642,7 @@
         <v>314390</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C297" s="6">
         <v>44538</v>
@@ -9660,14 +9653,14 @@
       <c r="E297" s="4">
         <v>2021</v>
       </c>
-      <c r="F297" s="4" t="s">
-        <v>185</v>
+      <c r="F297" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I297" s="7">
         <v>1</v>
@@ -9678,7 +9671,7 @@
         <v>315460</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C298" s="6">
         <v>44540</v>
@@ -9689,14 +9682,14 @@
       <c r="E298" s="4">
         <v>2021</v>
       </c>
-      <c r="F298" s="4" t="s">
-        <v>181</v>
+      <c r="F298" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I298" s="7">
         <v>1</v>
@@ -9707,7 +9700,7 @@
         <v>311100</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C299" s="6">
         <v>44540</v>
@@ -9718,14 +9711,14 @@
       <c r="E299" s="4">
         <v>2021</v>
       </c>
-      <c r="F299" s="4" t="s">
-        <v>187</v>
+      <c r="F299" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I299" s="7">
         <v>1</v>
@@ -9736,7 +9729,7 @@
         <v>310620</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C300" s="6">
         <v>44541</v>
@@ -9747,14 +9740,14 @@
       <c r="E300" s="4">
         <v>2021</v>
       </c>
-      <c r="F300" s="4" t="s">
-        <v>190</v>
+      <c r="F300" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I300" s="7">
         <v>1</v>
@@ -9765,7 +9758,7 @@
         <v>313890</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C301" s="6">
         <v>44541</v>
@@ -9776,14 +9769,14 @@
       <c r="E301" s="4">
         <v>2021</v>
       </c>
-      <c r="F301" s="4" t="s">
-        <v>194</v>
+      <c r="F301" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I301" s="7">
         <v>1</v>
@@ -9794,7 +9787,7 @@
         <v>314100</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C302" s="6">
         <v>44541</v>
@@ -9805,14 +9798,14 @@
       <c r="E302" s="4">
         <v>2021</v>
       </c>
-      <c r="F302" s="4" t="s">
-        <v>188</v>
+      <c r="F302" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I302" s="7">
         <v>1</v>
@@ -9823,7 +9816,7 @@
         <v>315180</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C303" s="6">
         <v>44541</v>
@@ -9834,14 +9827,14 @@
       <c r="E303" s="4">
         <v>2021</v>
       </c>
-      <c r="F303" s="4" t="s">
-        <v>187</v>
+      <c r="F303" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I303" s="7">
         <v>1</v>
@@ -9852,7 +9845,7 @@
         <v>315460</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C304" s="6">
         <v>44542</v>
@@ -9863,14 +9856,14 @@
       <c r="E304" s="4">
         <v>2021</v>
       </c>
-      <c r="F304" s="4" t="s">
-        <v>181</v>
+      <c r="F304" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I304" s="7">
         <v>1</v>
@@ -9881,7 +9874,7 @@
         <v>313840</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C305" s="6">
         <v>44542</v>
@@ -9892,14 +9885,14 @@
       <c r="E305" s="4">
         <v>2021</v>
       </c>
-      <c r="F305" s="4" t="s">
-        <v>185</v>
+      <c r="F305" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I305" s="7">
         <v>1</v>
@@ -9910,7 +9903,7 @@
         <v>317090</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C306" s="6">
         <v>44542</v>
@@ -9921,14 +9914,14 @@
       <c r="E306" s="4">
         <v>2021</v>
       </c>
-      <c r="F306" s="4" t="s">
-        <v>188</v>
+      <c r="F306" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I306" s="7">
         <v>1</v>
@@ -9939,7 +9932,7 @@
         <v>314330</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C307" s="6">
         <v>44545</v>
@@ -9950,14 +9943,14 @@
       <c r="E307" s="4">
         <v>2021</v>
       </c>
-      <c r="F307" s="4" t="s">
-        <v>188</v>
+      <c r="F307" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I307" s="7">
         <v>1</v>
@@ -9968,7 +9961,7 @@
         <v>313670</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C308" s="6">
         <v>44546</v>
@@ -9979,14 +9972,14 @@
       <c r="E308" s="4">
         <v>2021</v>
       </c>
-      <c r="F308" s="4" t="s">
-        <v>185</v>
+      <c r="F308" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I308" s="7">
         <v>1</v>
@@ -9997,7 +9990,7 @@
         <v>313440</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C309" s="6">
         <v>44547</v>
@@ -10008,14 +10001,14 @@
       <c r="E309" s="4">
         <v>2021</v>
       </c>
-      <c r="F309" s="4" t="s">
-        <v>191</v>
+      <c r="F309" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I309" s="7">
         <v>1</v>
@@ -10026,7 +10019,7 @@
         <v>313190</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C310" s="6">
         <v>44549</v>
@@ -10037,14 +10030,14 @@
       <c r="E310" s="4">
         <v>2021</v>
       </c>
-      <c r="F310" s="4" t="s">
-        <v>195</v>
+      <c r="F310" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I310" s="7">
         <v>1</v>
@@ -10055,7 +10048,7 @@
         <v>314050</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C311" s="6">
         <v>44549</v>
@@ -10066,14 +10059,14 @@
       <c r="E311" s="4">
         <v>2021</v>
       </c>
-      <c r="F311" s="4" t="s">
-        <v>182</v>
+      <c r="F311" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I311" s="7">
         <v>1</v>
@@ -10084,7 +10077,7 @@
         <v>316470</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C312" s="6">
         <v>44549</v>
@@ -10095,14 +10088,14 @@
       <c r="E312" s="4">
         <v>2021</v>
       </c>
-      <c r="F312" s="4" t="s">
-        <v>187</v>
+      <c r="F312" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I312" s="7">
         <v>1</v>
@@ -10113,7 +10106,7 @@
         <v>310620</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C313" s="6">
         <v>44550</v>
@@ -10124,14 +10117,14 @@
       <c r="E313" s="4">
         <v>2021</v>
       </c>
-      <c r="F313" s="4" t="s">
-        <v>190</v>
+      <c r="F313" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I313" s="7">
         <v>1</v>
@@ -10142,7 +10135,7 @@
         <v>313505</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C314" s="6">
         <v>44550</v>
@@ -10153,14 +10146,14 @@
       <c r="E314" s="4">
         <v>2021</v>
       </c>
-      <c r="F314" s="4" t="s">
-        <v>188</v>
+      <c r="F314" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I314" s="7">
         <v>1</v>
@@ -10171,7 +10164,7 @@
         <v>315120</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C315" s="6">
         <v>44553</v>
@@ -10182,14 +10175,14 @@
       <c r="E315" s="4">
         <v>2021</v>
       </c>
-      <c r="F315" s="4" t="s">
-        <v>197</v>
+      <c r="F315" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I315" s="7">
         <v>1</v>
@@ -10200,7 +10193,7 @@
         <v>316880</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C316" s="6">
         <v>44553</v>
@@ -10211,14 +10204,14 @@
       <c r="E316" s="4">
         <v>2021</v>
       </c>
-      <c r="F316" s="4" t="s">
-        <v>184</v>
+      <c r="F316" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I316" s="7">
         <v>1</v>
@@ -10229,7 +10222,7 @@
         <v>312160</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C317" s="6">
         <v>44555</v>
@@ -10240,14 +10233,14 @@
       <c r="E317" s="4">
         <v>2021</v>
       </c>
-      <c r="F317" s="4" t="s">
-        <v>197</v>
+      <c r="F317" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I317" s="7">
         <v>1</v>
@@ -10258,7 +10251,7 @@
         <v>317020</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C318" s="6">
         <v>44555</v>
@@ -10269,14 +10262,14 @@
       <c r="E318" s="4">
         <v>2021</v>
       </c>
-      <c r="F318" s="4" t="s">
-        <v>183</v>
+      <c r="F318" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I318" s="7">
         <v>1</v>
@@ -10287,7 +10280,7 @@
         <v>313170</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C319" s="6">
         <v>44555</v>
@@ -10298,14 +10291,14 @@
       <c r="E319" s="4">
         <v>2021</v>
       </c>
-      <c r="F319" s="4" t="s">
-        <v>186</v>
+      <c r="F319" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I319" s="7">
         <v>1</v>
@@ -10316,7 +10309,7 @@
         <v>315780</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C320" s="6">
         <v>44555</v>
@@ -10327,14 +10320,14 @@
       <c r="E320" s="4">
         <v>2021</v>
       </c>
-      <c r="F320" s="4" t="s">
-        <v>195</v>
+      <c r="F320" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I320" s="7">
         <v>1</v>
@@ -10345,7 +10338,7 @@
         <v>313980</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C321" s="6">
         <v>44556</v>
@@ -10356,14 +10349,14 @@
       <c r="E321" s="4">
         <v>2021</v>
       </c>
-      <c r="F321" s="4" t="s">
-        <v>185</v>
+      <c r="F321" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I321" s="7">
         <v>1</v>
@@ -10374,7 +10367,7 @@
         <v>315460</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C322" s="6">
         <v>44558</v>
@@ -10385,14 +10378,14 @@
       <c r="E322" s="4">
         <v>2021</v>
       </c>
-      <c r="F322" s="4" t="s">
-        <v>181</v>
+      <c r="F322" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I322" s="7">
         <v>1</v>
@@ -10403,7 +10396,7 @@
         <v>313130</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C323" s="6">
         <v>44558</v>
@@ -10414,14 +10407,14 @@
       <c r="E323" s="4">
         <v>2021</v>
       </c>
-      <c r="F323" s="4" t="s">
-        <v>186</v>
+      <c r="F323" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I323" s="7">
         <v>1</v>
@@ -10429,5 +10422,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/upload/feminicidio_2021.xlsx
+++ b/upload/feminicidio_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1DD16-65BC-48D0-806B-D1B68637ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE380AD4-67A2-4D41-B33F-815E5611C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EE8DA7F4-8E74-498B-926F-1A3C36F7DCA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EE8DA7F4-8E74-498B-926F-1A3C36F7DCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>CONTAGEM</t>
   </si>
   <si>
-    <t>2º RISP - Contagem</t>
-  </si>
-  <si>
     <t>2) RMBH (sem BH)</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>DIVINOPOLIS</t>
   </si>
   <si>
-    <t>7º RISP - Divinópolis</t>
-  </si>
-  <si>
     <t>3) Interior de MG</t>
   </si>
   <si>
@@ -95,39 +89,21 @@
     <t>ITUIUTABA</t>
   </si>
   <si>
-    <t>9º RISP - Uberlândia</t>
-  </si>
-  <si>
     <t>SAO JOAO DEL REI</t>
   </si>
   <si>
-    <t>13º RISP - Barbacena</t>
-  </si>
-  <si>
     <t>JUIZ DE FORA</t>
   </si>
   <si>
-    <t>4º RISP - Juiz de Fora</t>
-  </si>
-  <si>
     <t>SANTA BARBARA</t>
   </si>
   <si>
-    <t>12º RISP - Ipatinga</t>
-  </si>
-  <si>
     <t>VARGEM BONITA</t>
   </si>
   <si>
-    <t>18º RISP - Poços de Caldas</t>
-  </si>
-  <si>
     <t>BONITO DE MINAS</t>
   </si>
   <si>
-    <t>11º RISP - Montes Claros</t>
-  </si>
-  <si>
     <t>ARAGUARI</t>
   </si>
   <si>
@@ -137,9 +113,6 @@
     <t>SETE LAGOAS</t>
   </si>
   <si>
-    <t>19º RISP - Sete Lagoas</t>
-  </si>
-  <si>
     <t>RAUL SOARES</t>
   </si>
   <si>
@@ -149,30 +122,18 @@
     <t>BELO HORIZONTE</t>
   </si>
   <si>
-    <t>1º RISP - Belo Horizonte</t>
-  </si>
-  <si>
     <t>1) Belo Horizonte</t>
   </si>
   <si>
     <t>UBERABA</t>
   </si>
   <si>
-    <t>5º RISP - Uberaba</t>
-  </si>
-  <si>
     <t>BOM REPOUSO</t>
   </si>
   <si>
-    <t>17º RISP - Pouso Alegre</t>
-  </si>
-  <si>
     <t>VAZANTE</t>
   </si>
   <si>
-    <t>16º RISP - Unaí</t>
-  </si>
-  <si>
     <t>MATIAS BARBOSA</t>
   </si>
   <si>
@@ -194,15 +155,9 @@
     <t>MEDINA</t>
   </si>
   <si>
-    <t>15º RISP - Teófilo Otoni</t>
-  </si>
-  <si>
     <t>SANTA LUZIA</t>
   </si>
   <si>
-    <t>3º RISP - Vespasiano</t>
-  </si>
-  <si>
     <t>IPATINGA</t>
   </si>
   <si>
@@ -215,9 +170,6 @@
     <t>PERDOES</t>
   </si>
   <si>
-    <t>6º RISP - Lavras</t>
-  </si>
-  <si>
     <t>PRADOS</t>
   </si>
   <si>
@@ -242,15 +194,9 @@
     <t>SANTO ANTONIO DO RIO ABAIXO</t>
   </si>
   <si>
-    <t>14º RISP - Curvelo</t>
-  </si>
-  <si>
     <t>PATOS DE MINAS</t>
   </si>
   <si>
-    <t>10º RISP - Patos de Minas</t>
-  </si>
-  <si>
     <t>NOVA SERRANA</t>
   </si>
   <si>
@@ -269,9 +215,6 @@
     <t>NOVA BELEM</t>
   </si>
   <si>
-    <t>8º RISP - Governador Valadares</t>
-  </si>
-  <si>
     <t>ITABIRINHA</t>
   </si>
   <si>
@@ -636,6 +579,63 @@
   </si>
   <si>
     <t>MAR DE ESPANHA</t>
+  </si>
+  <si>
+    <t>2º Departamento - Contagem</t>
+  </si>
+  <si>
+    <t>7º Departamento - Divinópolis</t>
+  </si>
+  <si>
+    <t>9º Departamento - Uberlândia</t>
+  </si>
+  <si>
+    <t>13º Departamento - Barbacena</t>
+  </si>
+  <si>
+    <t>4º Departamento - Juiz de Fora</t>
+  </si>
+  <si>
+    <t>12º Departamento - Ipatinga</t>
+  </si>
+  <si>
+    <t>18º Departamento - Poços de Caldas</t>
+  </si>
+  <si>
+    <t>11º Departamento - Montes Claros</t>
+  </si>
+  <si>
+    <t>19º Departamento - Sete Lagoas</t>
+  </si>
+  <si>
+    <t>1º Departamento - Belo Horizonte</t>
+  </si>
+  <si>
+    <t>5º Departamento - Uberaba</t>
+  </si>
+  <si>
+    <t>17º Departamento - Pouso Alegre</t>
+  </si>
+  <si>
+    <t>16º Departamento - Unaí</t>
+  </si>
+  <si>
+    <t>15º Departamento - Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>3º Departamento - Vespasiano</t>
+  </si>
+  <si>
+    <t>6º Departamento - Lavras</t>
+  </si>
+  <si>
+    <t>14º Departamento - Curvelo</t>
+  </si>
+  <si>
+    <t>10º Departamento - Patos de Minas</t>
+  </si>
+  <si>
+    <t>8º Departamento - Governador Valadares</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:I323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,13 +1099,13 @@
         <v>2021</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>312230</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>44198</v>
@@ -1128,13 +1128,13 @@
         <v>2021</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>313380</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>44199</v>
@@ -1157,13 +1157,13 @@
         <v>2021</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>313420</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>44201</v>
@@ -1186,13 +1186,13 @@
         <v>2021</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>316250</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>44205</v>
@@ -1215,13 +1215,13 @@
         <v>2021</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>313670</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>44206</v>
@@ -1244,13 +1244,13 @@
         <v>2021</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>315720</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>44208</v>
@@ -1273,13 +1273,13 @@
         <v>2021</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1302,13 +1302,13 @@
         <v>2021</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>317060</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>44212</v>
@@ -1331,13 +1331,13 @@
         <v>2021</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>310825</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>44213</v>
@@ -1360,13 +1360,13 @@
         <v>2021</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>310350</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>44214</v>
@@ -1389,13 +1389,13 @@
         <v>2021</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>313370</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6">
         <v>44214</v>
@@ -1418,13 +1418,13 @@
         <v>2021</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>316720</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" s="6">
         <v>44215</v>
@@ -1447,13 +1447,13 @@
         <v>2021</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>315400</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
         <v>44215</v>
@@ -1476,13 +1476,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>311220</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>44216</v>
@@ -1505,13 +1505,13 @@
         <v>2021</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>310620</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>44217</v>
@@ -1534,13 +1534,13 @@
         <v>2021</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>317010</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6">
         <v>44217</v>
@@ -1563,13 +1563,13 @@
         <v>2021</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>310790</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6">
         <v>44218</v>
@@ -1592,13 +1592,13 @@
         <v>2021</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>317100</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
         <v>44218</v>
@@ -1621,13 +1621,13 @@
         <v>2021</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>317100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6">
         <v>44218</v>
@@ -1650,13 +1650,13 @@
         <v>2021</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>314080</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6">
         <v>44220</v>
@@ -1679,13 +1679,13 @@
         <v>2021</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>313360</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6">
         <v>44221</v>
@@ -1708,13 +1708,13 @@
         <v>2021</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>310620</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>44221</v>
@@ -1737,13 +1737,13 @@
         <v>2021</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
         <v>2</v>
@@ -1766,13 +1766,13 @@
         <v>2021</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>315460</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6">
         <v>44227</v>
@@ -1795,13 +1795,13 @@
         <v>2021</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>316292</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6">
         <v>44228</v>
@@ -1824,13 +1824,13 @@
         <v>2021</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>317020</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6">
         <v>44228</v>
@@ -1853,13 +1853,13 @@
         <v>2021</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>311130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>44229</v>
@@ -1882,13 +1882,13 @@
         <v>2021</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>314140</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6">
         <v>44229</v>
@@ -1911,13 +1911,13 @@
         <v>2021</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>317010</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C31" s="6">
         <v>44230</v>
@@ -1940,13 +1940,13 @@
         <v>2021</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>315780</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6">
         <v>44231</v>
@@ -1969,13 +1969,13 @@
         <v>2021</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>313130</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
         <v>44232</v>
@@ -1998,13 +1998,13 @@
         <v>2021</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>314015</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6">
         <v>44232</v>
@@ -2027,13 +2027,13 @@
         <v>2021</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>313130</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6">
         <v>44233</v>
@@ -2056,13 +2056,13 @@
         <v>2021</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>310160</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6">
         <v>44235</v>
@@ -2085,13 +2085,13 @@
         <v>2021</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -2102,7 +2102,7 @@
         <v>310620</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" s="6">
         <v>44239</v>
@@ -2114,13 +2114,13 @@
         <v>2021</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>310620</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C38" s="6">
         <v>44240</v>
@@ -2143,13 +2143,13 @@
         <v>2021</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>314990</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6">
         <v>44241</v>
@@ -2172,13 +2172,13 @@
         <v>2021</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -2201,13 +2201,13 @@
         <v>2021</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>316720</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6">
         <v>44245</v>
@@ -2230,13 +2230,13 @@
         <v>2021</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>315270</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
         <v>44249</v>
@@ -2259,13 +2259,13 @@
         <v>2021</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>310620</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C43" s="6">
         <v>44249</v>
@@ -2288,13 +2288,13 @@
         <v>2021</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>314430</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6">
         <v>44249</v>
@@ -2317,13 +2317,13 @@
         <v>2021</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -2346,13 +2346,13 @@
         <v>2021</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>311830</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C46" s="6">
         <v>44252</v>
@@ -2375,13 +2375,13 @@
         <v>2021</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>313190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6">
         <v>44253</v>
@@ -2404,13 +2404,13 @@
         <v>2021</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -2433,13 +2433,13 @@
         <v>2021</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2450,7 +2450,7 @@
         <v>315460</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C49" s="6">
         <v>44254</v>
@@ -2462,13 +2462,13 @@
         <v>2021</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>311340</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6">
         <v>44254</v>
@@ -2491,13 +2491,13 @@
         <v>2021</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>316980</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C51" s="6">
         <v>44255</v>
@@ -2520,13 +2520,13 @@
         <v>2021</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>317010</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C52" s="6">
         <v>44255</v>
@@ -2549,13 +2549,13 @@
         <v>2021</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2578,13 +2578,13 @@
         <v>2021</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>313940</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6">
         <v>44257</v>
@@ -2607,13 +2607,13 @@
         <v>2021</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>316050</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6">
         <v>44257</v>
@@ -2636,13 +2636,13 @@
         <v>2021</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I55" s="7">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>314800</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6">
         <v>44264</v>
@@ -2665,13 +2665,13 @@
         <v>2021</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>314520</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C57" s="6">
         <v>44264</v>
@@ -2694,13 +2694,13 @@
         <v>2021</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>315760</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6">
         <v>44266</v>
@@ -2723,13 +2723,13 @@
         <v>2021</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>310620</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C59" s="6">
         <v>44268</v>
@@ -2752,13 +2752,13 @@
         <v>2021</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>315180</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C60" s="6">
         <v>44268</v>
@@ -2781,13 +2781,13 @@
         <v>2021</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>317020</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C61" s="6">
         <v>44268</v>
@@ -2810,13 +2810,13 @@
         <v>2021</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>310670</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C62" s="6">
         <v>44268</v>
@@ -2839,13 +2839,13 @@
         <v>2021</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>313570</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C63" s="6">
         <v>44268</v>
@@ -2868,13 +2868,13 @@
         <v>2021</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>314467</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C64" s="6">
         <v>44268</v>
@@ -2897,13 +2897,13 @@
         <v>2021</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>310670</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C65" s="6">
         <v>44269</v>
@@ -2926,13 +2926,13 @@
         <v>2021</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>313180</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6">
         <v>44273</v>
@@ -2955,13 +2955,13 @@
         <v>2021</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I66" s="7">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>314280</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C67" s="6">
         <v>44274</v>
@@ -2984,13 +2984,13 @@
         <v>2021</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>310450</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6">
         <v>44275</v>
@@ -3013,13 +3013,13 @@
         <v>2021</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>313420</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C69" s="6">
         <v>44275</v>
@@ -3042,13 +3042,13 @@
         <v>2021</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -3059,7 +3059,7 @@
         <v>314655</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C70" s="6">
         <v>44275</v>
@@ -3071,13 +3071,13 @@
         <v>2021</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I70" s="7">
         <v>1</v>
@@ -3088,7 +3088,7 @@
         <v>315460</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C71" s="6">
         <v>44276</v>
@@ -3100,13 +3100,13 @@
         <v>2021</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>314070</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C72" s="6">
         <v>44277</v>
@@ -3129,13 +3129,13 @@
         <v>2021</v>
       </c>
       <c r="F72" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="7">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>312235</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C73" s="6">
         <v>44278</v>
@@ -3158,13 +3158,13 @@
         <v>2021</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         <v>310665</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6">
         <v>44279</v>
@@ -3187,13 +3187,13 @@
         <v>2021</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>312770</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C75" s="6">
         <v>44279</v>
@@ -3216,13 +3216,13 @@
         <v>2021</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>310620</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C76" s="6">
         <v>44282</v>
@@ -3245,13 +3245,13 @@
         <v>2021</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" s="7">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         <v>316720</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C77" s="6">
         <v>44282</v>
@@ -3274,13 +3274,13 @@
         <v>2021</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -3291,7 +3291,7 @@
         <v>312330</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C78" s="6">
         <v>44284</v>
@@ -3303,13 +3303,13 @@
         <v>2021</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="7">
         <v>2</v>
@@ -3320,7 +3320,7 @@
         <v>313130</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C79" s="6">
         <v>44284</v>
@@ -3332,13 +3332,13 @@
         <v>2021</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" s="7">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>311160</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C80" s="6">
         <v>44285</v>
@@ -3361,13 +3361,13 @@
         <v>2021</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -3378,7 +3378,7 @@
         <v>317180</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C81" s="6">
         <v>44286</v>
@@ -3390,13 +3390,13 @@
         <v>2021</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>310620</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C82" s="6">
         <v>44286</v>
@@ -3419,13 +3419,13 @@
         <v>2021</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I82" s="7">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>310620</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C83" s="6">
         <v>44288</v>
@@ -3448,13 +3448,13 @@
         <v>2021</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>311800</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C84" s="6">
         <v>44288</v>
@@ -3477,13 +3477,13 @@
         <v>2021</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -3506,13 +3506,13 @@
         <v>2021</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>314980</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C86" s="6">
         <v>44289</v>
@@ -3535,13 +3535,13 @@
         <v>2021</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>317020</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C87" s="6">
         <v>44290</v>
@@ -3564,13 +3564,13 @@
         <v>2021</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>316190</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C88" s="6">
         <v>44291</v>
@@ -3593,13 +3593,13 @@
         <v>2021</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -3610,7 +3610,7 @@
         <v>315460</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C89" s="6">
         <v>44292</v>
@@ -3622,13 +3622,13 @@
         <v>2021</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>312710</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C90" s="6">
         <v>44293</v>
@@ -3651,13 +3651,13 @@
         <v>2021</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>310350</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C91" s="6">
         <v>44296</v>
@@ -3680,13 +3680,13 @@
         <v>2021</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>313410</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C92" s="6">
         <v>44296</v>
@@ -3709,13 +3709,13 @@
         <v>2021</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I92" s="7">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>315370</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C93" s="6">
         <v>44297</v>
@@ -3738,13 +3738,13 @@
         <v>2021</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I93" s="7">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>316720</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C94" s="6">
         <v>44297</v>
@@ -3767,13 +3767,13 @@
         <v>2021</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I94" s="7">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>310730</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C95" s="6">
         <v>44298</v>
@@ -3796,13 +3796,13 @@
         <v>2021</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" s="7">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>312770</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C96" s="6">
         <v>44299</v>
@@ -3825,13 +3825,13 @@
         <v>2021</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" s="7">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>312380</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C97" s="6">
         <v>44300</v>
@@ -3854,13 +3854,13 @@
         <v>2021</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I97" s="7">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>314330</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C98" s="6">
         <v>44302</v>
@@ -3883,13 +3883,13 @@
         <v>2021</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="7">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>313220</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C99" s="6">
         <v>44303</v>
@@ -3912,13 +3912,13 @@
         <v>2021</v>
       </c>
       <c r="F99" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H99" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I99" s="7">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>310620</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C100" s="6">
         <v>44304</v>
@@ -3941,13 +3941,13 @@
         <v>2021</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I100" s="7">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>314140</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6">
         <v>44304</v>
@@ -3970,13 +3970,13 @@
         <v>2021</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I101" s="7">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>312160</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C102" s="6">
         <v>44305</v>
@@ -3999,13 +3999,13 @@
         <v>2021</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="7">
         <v>1</v>
@@ -4016,7 +4016,7 @@
         <v>314070</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C103" s="6">
         <v>44305</v>
@@ -4028,13 +4028,13 @@
         <v>2021</v>
       </c>
       <c r="F103" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H103" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I103" s="7">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>311580</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C104" s="6">
         <v>44306</v>
@@ -4057,13 +4057,13 @@
         <v>2021</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="7">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         <v>311930</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C105" s="6">
         <v>44306</v>
@@ -4086,13 +4086,13 @@
         <v>2021</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I105" s="7">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>313620</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C106" s="6">
         <v>44307</v>
@@ -4115,13 +4115,13 @@
         <v>2021</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I106" s="7">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>315220</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C107" s="6">
         <v>44309</v>
@@ -4144,13 +4144,13 @@
         <v>2021</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I107" s="7">
         <v>1</v>
@@ -4161,7 +4161,7 @@
         <v>311300</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C108" s="6">
         <v>44311</v>
@@ -4173,13 +4173,13 @@
         <v>2021</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I108" s="7">
         <v>1</v>
@@ -4190,7 +4190,7 @@
         <v>316840</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C109" s="6">
         <v>44311</v>
@@ -4202,13 +4202,13 @@
         <v>2021</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I109" s="7">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>310620</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C110" s="6">
         <v>44312</v>
@@ -4231,13 +4231,13 @@
         <v>2021</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I110" s="7">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>312410</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C111" s="6">
         <v>44314</v>
@@ -4260,13 +4260,13 @@
         <v>2021</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H111" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" s="7">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>313710</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C112" s="6">
         <v>44314</v>
@@ -4289,13 +4289,13 @@
         <v>2021</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" s="7">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>315460</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C113" s="6">
         <v>44314</v>
@@ -4318,13 +4318,13 @@
         <v>2021</v>
       </c>
       <c r="F113" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H113" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I113" s="7">
         <v>1</v>
@@ -4335,7 +4335,7 @@
         <v>310670</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C114" s="6">
         <v>44316</v>
@@ -4347,13 +4347,13 @@
         <v>2021</v>
       </c>
       <c r="F114" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H114" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I114" s="7">
         <v>1</v>
@@ -4376,13 +4376,13 @@
         <v>2021</v>
       </c>
       <c r="F115" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I115" s="7">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>311880</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C116" s="6">
         <v>44318</v>
@@ -4405,13 +4405,13 @@
         <v>2021</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I116" s="7">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         <v>313520</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C117" s="6">
         <v>44318</v>
@@ -4434,13 +4434,13 @@
         <v>2021</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I117" s="7">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>311880</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C118" s="6">
         <v>44318</v>
@@ -4463,13 +4463,13 @@
         <v>2021</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -4480,7 +4480,7 @@
         <v>313920</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C119" s="6">
         <v>44321</v>
@@ -4492,13 +4492,13 @@
         <v>2021</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>314630</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C120" s="6">
         <v>44321</v>
@@ -4521,13 +4521,13 @@
         <v>2021</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>317020</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C121" s="6">
         <v>44324</v>
@@ -4550,13 +4550,13 @@
         <v>2021</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I121" s="7">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>311300</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C122" s="6">
         <v>44325</v>
@@ -4579,13 +4579,13 @@
         <v>2021</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I122" s="7">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>310620</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C123" s="6">
         <v>44326</v>
@@ -4608,13 +4608,13 @@
         <v>2021</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I123" s="7">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>313380</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124" s="6">
         <v>44326</v>
@@ -4637,13 +4637,13 @@
         <v>2021</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I124" s="7">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         <v>311270</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C125" s="6">
         <v>44328</v>
@@ -4666,13 +4666,13 @@
         <v>2021</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I125" s="7">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>310670</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C126" s="6">
         <v>44331</v>
@@ -4695,13 +4695,13 @@
         <v>2021</v>
       </c>
       <c r="F126" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H126" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I126" s="7">
         <v>1</v>
@@ -4712,7 +4712,7 @@
         <v>316990</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C127" s="6">
         <v>44331</v>
@@ -4724,13 +4724,13 @@
         <v>2021</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I127" s="7">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>310160</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C128" s="6">
         <v>44331</v>
@@ -4753,13 +4753,13 @@
         <v>2021</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I128" s="7">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>317020</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C129" s="6">
         <v>44331</v>
@@ -4782,13 +4782,13 @@
         <v>2021</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I129" s="7">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>316805</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C130" s="6">
         <v>44332</v>
@@ -4811,13 +4811,13 @@
         <v>2021</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I130" s="7">
         <v>1</v>
@@ -4828,7 +4828,7 @@
         <v>317040</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C131" s="6">
         <v>44332</v>
@@ -4840,13 +4840,13 @@
         <v>2021</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I131" s="7">
         <v>1</v>
@@ -4857,7 +4857,7 @@
         <v>311300</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C132" s="6">
         <v>44334</v>
@@ -4869,13 +4869,13 @@
         <v>2021</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I132" s="7">
         <v>1</v>
@@ -4886,7 +4886,7 @@
         <v>314480</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C133" s="6">
         <v>44335</v>
@@ -4898,13 +4898,13 @@
         <v>2021</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I133" s="7">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>310620</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C134" s="6">
         <v>44336</v>
@@ -4927,13 +4927,13 @@
         <v>2021</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I134" s="7">
         <v>1</v>
@@ -4944,7 +4944,7 @@
         <v>313010</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C135" s="6">
         <v>44336</v>
@@ -4956,13 +4956,13 @@
         <v>2021</v>
       </c>
       <c r="F135" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H135" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I135" s="7">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>311110</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C136" s="6">
         <v>44337</v>
@@ -4985,13 +4985,13 @@
         <v>2021</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
@@ -5002,7 +5002,7 @@
         <v>313510</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C137" s="6">
         <v>44338</v>
@@ -5014,13 +5014,13 @@
         <v>2021</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         <v>314800</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C138" s="6">
         <v>44339</v>
@@ -5043,13 +5043,13 @@
         <v>2021</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I138" s="7">
         <v>2</v>
@@ -5060,7 +5060,7 @@
         <v>313380</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" s="6">
         <v>44343</v>
@@ -5072,13 +5072,13 @@
         <v>2021</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>311340</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C140" s="6">
         <v>44344</v>
@@ -5101,13 +5101,13 @@
         <v>2021</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I140" s="7">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>311650</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C141" s="6">
         <v>44344</v>
@@ -5130,13 +5130,13 @@
         <v>2021</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I141" s="7">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>315460</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C142" s="6">
         <v>44345</v>
@@ -5159,13 +5159,13 @@
         <v>2021</v>
       </c>
       <c r="F142" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H142" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I142" s="7">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>315120</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C143" s="6">
         <v>44345</v>
@@ -5188,13 +5188,13 @@
         <v>2021</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I143" s="7">
         <v>1</v>
@@ -5205,7 +5205,7 @@
         <v>312980</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C144" s="6">
         <v>44346</v>
@@ -5217,13 +5217,13 @@
         <v>2021</v>
       </c>
       <c r="F144" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H144" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I144" s="7">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>314610</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C145" s="6">
         <v>44347</v>
@@ -5246,13 +5246,13 @@
         <v>2021</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
@@ -5263,7 +5263,7 @@
         <v>316800</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C146" s="6">
         <v>44348</v>
@@ -5275,13 +5275,13 @@
         <v>2021</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
@@ -5292,7 +5292,7 @@
         <v>316720</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C147" s="6">
         <v>44349</v>
@@ -5304,13 +5304,13 @@
         <v>2021</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I147" s="7">
         <v>2</v>
@@ -5321,7 +5321,7 @@
         <v>316990</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C148" s="6">
         <v>44350</v>
@@ -5333,13 +5333,13 @@
         <v>2021</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I148" s="7">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>310620</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C149" s="6">
         <v>44352</v>
@@ -5362,13 +5362,13 @@
         <v>2021</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I149" s="7">
         <v>1</v>
@@ -5379,7 +5379,7 @@
         <v>314800</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C150" s="6">
         <v>44352</v>
@@ -5391,13 +5391,13 @@
         <v>2021</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>310620</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C151" s="6">
         <v>44353</v>
@@ -5420,13 +5420,13 @@
         <v>2021</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>316250</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C152" s="6">
         <v>44353</v>
@@ -5449,13 +5449,13 @@
         <v>2021</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="7">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>314290</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C153" s="6">
         <v>44356</v>
@@ -5478,13 +5478,13 @@
         <v>2021</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I153" s="7">
         <v>2</v>
@@ -5495,7 +5495,7 @@
         <v>315700</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C154" s="6">
         <v>44359</v>
@@ -5507,13 +5507,13 @@
         <v>2021</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="7">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         <v>310520</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C155" s="6">
         <v>44361</v>
@@ -5536,13 +5536,13 @@
         <v>2021</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I155" s="7">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>314700</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C156" s="6">
         <v>44362</v>
@@ -5565,13 +5565,13 @@
         <v>2021</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I156" s="7">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>310620</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C157" s="6">
         <v>44364</v>
@@ -5594,13 +5594,13 @@
         <v>2021</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I157" s="7">
         <v>1</v>
@@ -5611,7 +5611,7 @@
         <v>316930</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C158" s="6">
         <v>44367</v>
@@ -5623,13 +5623,13 @@
         <v>2021</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>310620</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C159" s="6">
         <v>44368</v>
@@ -5652,13 +5652,13 @@
         <v>2021</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I159" s="7">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>310620</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C160" s="6">
         <v>44376</v>
@@ -5681,13 +5681,13 @@
         <v>2021</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" s="7">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>310170</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C161" s="6">
         <v>44377</v>
@@ -5710,13 +5710,13 @@
         <v>2021</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I161" s="7">
         <v>2</v>
@@ -5727,7 +5727,7 @@
         <v>315250</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C162" s="6">
         <v>44382</v>
@@ -5739,13 +5739,13 @@
         <v>2021</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="7">
         <v>1</v>
@@ -5756,7 +5756,7 @@
         <v>310930</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C163" s="6">
         <v>44383</v>
@@ -5768,13 +5768,13 @@
         <v>2021</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" s="7">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>317020</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C164" s="6">
         <v>44385</v>
@@ -5797,13 +5797,13 @@
         <v>2021</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I164" s="7">
         <v>1</v>
@@ -5826,13 +5826,13 @@
         <v>2021</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H165" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I165" s="7">
         <v>1</v>
@@ -5843,7 +5843,7 @@
         <v>310500</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C166" s="6">
         <v>44388</v>
@@ -5855,13 +5855,13 @@
         <v>2021</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I166" s="7">
         <v>1</v>
@@ -5872,7 +5872,7 @@
         <v>316410</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C167" s="6">
         <v>44388</v>
@@ -5884,13 +5884,13 @@
         <v>2021</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I167" s="7">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>310560</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C168" s="6">
         <v>44389</v>
@@ -5913,13 +5913,13 @@
         <v>2021</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I168" s="7">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>317100</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C169" s="6">
         <v>44389</v>
@@ -5942,13 +5942,13 @@
         <v>2021</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I169" s="7">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>310670</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C170" s="6">
         <v>44393</v>
@@ -5971,13 +5971,13 @@
         <v>2021</v>
       </c>
       <c r="F170" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H170" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I170" s="7">
         <v>1</v>
@@ -5988,7 +5988,7 @@
         <v>316990</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C171" s="6">
         <v>44394</v>
@@ -6000,13 +6000,13 @@
         <v>2021</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -6017,7 +6017,7 @@
         <v>310620</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C172" s="6">
         <v>44394</v>
@@ -6029,13 +6029,13 @@
         <v>2021</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I172" s="7">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>316250</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C173" s="6">
         <v>44395</v>
@@ -6058,13 +6058,13 @@
         <v>2021</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="7">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>316720</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C174" s="6">
         <v>44395</v>
@@ -6087,13 +6087,13 @@
         <v>2021</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="7">
         <v>1</v>
@@ -6104,7 +6104,7 @@
         <v>316560</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C175" s="6">
         <v>44398</v>
@@ -6116,13 +6116,13 @@
         <v>2021</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175" s="7">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>312087</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C176" s="6">
         <v>44398</v>
@@ -6145,13 +6145,13 @@
         <v>2021</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -6162,7 +6162,7 @@
         <v>316720</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C177" s="6">
         <v>44398</v>
@@ -6174,13 +6174,13 @@
         <v>2021</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I177" s="7">
         <v>1</v>
@@ -6191,7 +6191,7 @@
         <v>315895</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C178" s="6">
         <v>44400</v>
@@ -6203,13 +6203,13 @@
         <v>2021</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I178" s="7">
         <v>1</v>
@@ -6220,7 +6220,7 @@
         <v>311680</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C179" s="6">
         <v>44401</v>
@@ -6232,13 +6232,13 @@
         <v>2021</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I179" s="7">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>314160</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C180" s="6">
         <v>44401</v>
@@ -6261,13 +6261,13 @@
         <v>2021</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>310060</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C181" s="6">
         <v>44402</v>
@@ -6290,13 +6290,13 @@
         <v>2021</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
@@ -6307,7 +6307,7 @@
         <v>317020</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C182" s="6">
         <v>44404</v>
@@ -6319,13 +6319,13 @@
         <v>2021</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I182" s="7">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>310350</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C183" s="6">
         <v>44406</v>
@@ -6348,13 +6348,13 @@
         <v>2021</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I183" s="7">
         <v>1</v>
@@ -6365,7 +6365,7 @@
         <v>315220</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C184" s="6">
         <v>44406</v>
@@ -6377,13 +6377,13 @@
         <v>2021</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I184" s="7">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>314690</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C185" s="6">
         <v>44408</v>
@@ -6406,13 +6406,13 @@
         <v>2021</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I185" s="7">
         <v>1</v>
@@ -6423,7 +6423,7 @@
         <v>317020</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C186" s="6">
         <v>44408</v>
@@ -6435,13 +6435,13 @@
         <v>2021</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I186" s="7">
         <v>1</v>
@@ -6452,7 +6452,7 @@
         <v>310620</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C187" s="6">
         <v>44408</v>
@@ -6464,13 +6464,13 @@
         <v>2021</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I187" s="7">
         <v>1</v>
@@ -6481,7 +6481,7 @@
         <v>313960</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C188" s="6">
         <v>44408</v>
@@ -6493,13 +6493,13 @@
         <v>2021</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I188" s="7">
         <v>1</v>
@@ -6510,7 +6510,7 @@
         <v>310945</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C189" s="6">
         <v>44409</v>
@@ -6522,13 +6522,13 @@
         <v>2021</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I189" s="7">
         <v>1</v>
@@ -6539,7 +6539,7 @@
         <v>310620</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C190" s="6">
         <v>44410</v>
@@ -6551,13 +6551,13 @@
         <v>2021</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I190" s="7">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>313670</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C191" s="6">
         <v>44415</v>
@@ -6580,13 +6580,13 @@
         <v>2021</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I191" s="7">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>314330</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C192" s="6">
         <v>44416</v>
@@ -6609,13 +6609,13 @@
         <v>2021</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I192" s="7">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>310620</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C193" s="6">
         <v>44417</v>
@@ -6638,13 +6638,13 @@
         <v>2021</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I193" s="7">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>311930</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C194" s="6">
         <v>44417</v>
@@ -6667,13 +6667,13 @@
         <v>2021</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I194" s="7">
         <v>1</v>
@@ -6684,7 +6684,7 @@
         <v>316810</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C195" s="6">
         <v>44417</v>
@@ -6696,13 +6696,13 @@
         <v>2021</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I195" s="7">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>314310</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C196" s="6">
         <v>44418</v>
@@ -6725,13 +6725,13 @@
         <v>2021</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I196" s="7">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>315460</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C197" s="6">
         <v>44418</v>
@@ -6754,13 +6754,13 @@
         <v>2021</v>
       </c>
       <c r="F197" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G197" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H197" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
@@ -6771,7 +6771,7 @@
         <v>314620</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C198" s="6">
         <v>44419</v>
@@ -6783,13 +6783,13 @@
         <v>2021</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
@@ -6800,7 +6800,7 @@
         <v>313130</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C199" s="6">
         <v>44419</v>
@@ -6812,13 +6812,13 @@
         <v>2021</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>317120</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C200" s="6">
         <v>44420</v>
@@ -6841,13 +6841,13 @@
         <v>2021</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>311840</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C201" s="6">
         <v>44421</v>
@@ -6870,13 +6870,13 @@
         <v>2021</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I201" s="7">
         <v>1</v>
@@ -6887,7 +6887,7 @@
         <v>315780</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C202" s="6">
         <v>44422</v>
@@ -6899,13 +6899,13 @@
         <v>2021</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I202" s="7">
         <v>1</v>
@@ -6916,7 +6916,7 @@
         <v>310110</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C203" s="6">
         <v>44423</v>
@@ -6928,13 +6928,13 @@
         <v>2021</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" s="7">
         <v>1</v>
@@ -6945,7 +6945,7 @@
         <v>314390</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C204" s="6">
         <v>44423</v>
@@ -6957,13 +6957,13 @@
         <v>2021</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I204" s="7">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>310160</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C205" s="6">
         <v>44426</v>
@@ -6986,13 +6986,13 @@
         <v>2021</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I205" s="7">
         <v>1</v>
@@ -7003,7 +7003,7 @@
         <v>310620</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C206" s="6">
         <v>44429</v>
@@ -7015,13 +7015,13 @@
         <v>2021</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I206" s="7">
         <v>1</v>
@@ -7044,13 +7044,13 @@
         <v>2021</v>
       </c>
       <c r="F207" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G207" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H207" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I207" s="7">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>310570</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C208" s="6">
         <v>44430</v>
@@ -7073,13 +7073,13 @@
         <v>2021</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I208" s="7">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>310620</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C209" s="6">
         <v>44432</v>
@@ -7102,13 +7102,13 @@
         <v>2021</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I209" s="7">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>310670</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C210" s="6">
         <v>44433</v>
@@ -7131,13 +7131,13 @@
         <v>2021</v>
       </c>
       <c r="F210" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H210" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I210" s="7">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>312120</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C211" s="6">
         <v>44435</v>
@@ -7160,13 +7160,13 @@
         <v>2021</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I211" s="7">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>311120</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C212" s="6">
         <v>44436</v>
@@ -7189,13 +7189,13 @@
         <v>2021</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I212" s="7">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>310620</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C213" s="6">
         <v>44436</v>
@@ -7218,13 +7218,13 @@
         <v>2021</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I213" s="7">
         <v>2</v>
@@ -7235,7 +7235,7 @@
         <v>313260</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C214" s="6">
         <v>44437</v>
@@ -7247,13 +7247,13 @@
         <v>2021</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I214" s="7">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>314610</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C215" s="6">
         <v>44438</v>
@@ -7276,13 +7276,13 @@
         <v>2021</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I215" s="7">
         <v>1</v>
@@ -7293,7 +7293,7 @@
         <v>316370</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C216" s="6">
         <v>44438</v>
@@ -7305,13 +7305,13 @@
         <v>2021</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I216" s="7">
         <v>1</v>
@@ -7322,7 +7322,7 @@
         <v>310620</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C217" s="6">
         <v>44439</v>
@@ -7334,13 +7334,13 @@
         <v>2021</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I217" s="7">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>310620</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C218" s="6">
         <v>44440</v>
@@ -7363,13 +7363,13 @@
         <v>2021</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I218" s="7">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>312320</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C219" s="6">
         <v>44443</v>
@@ -7392,13 +7392,13 @@
         <v>2021</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I219" s="7">
         <v>1</v>
@@ -7409,7 +7409,7 @@
         <v>316260</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C220" s="6">
         <v>44446</v>
@@ -7421,13 +7421,13 @@
         <v>2021</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I220" s="7">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>310620</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C221" s="6">
         <v>44448</v>
@@ -7450,13 +7450,13 @@
         <v>2021</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I221" s="7">
         <v>1</v>
@@ -7467,7 +7467,7 @@
         <v>312230</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C222" s="6">
         <v>44449</v>
@@ -7479,13 +7479,13 @@
         <v>2021</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I222" s="7">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>313760</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C223" s="6">
         <v>44450</v>
@@ -7508,13 +7508,13 @@
         <v>2021</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I223" s="7">
         <v>1</v>
@@ -7525,7 +7525,7 @@
         <v>311940</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C224" s="6">
         <v>44451</v>
@@ -7537,13 +7537,13 @@
         <v>2021</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I224" s="7">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>313220</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C225" s="6">
         <v>44451</v>
@@ -7566,13 +7566,13 @@
         <v>2021</v>
       </c>
       <c r="F225" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G225" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G225" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H225" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I225" s="7">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>315210</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C226" s="6">
         <v>44453</v>
@@ -7595,13 +7595,13 @@
         <v>2021</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I226" s="7">
         <v>1</v>
@@ -7612,7 +7612,7 @@
         <v>312720</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C227" s="6">
         <v>44454</v>
@@ -7624,13 +7624,13 @@
         <v>2021</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I227" s="7">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>312160</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C228" s="6">
         <v>44455</v>
@@ -7653,13 +7653,13 @@
         <v>2021</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I228" s="7">
         <v>1</v>
@@ -7670,7 +7670,7 @@
         <v>314810</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C229" s="6">
         <v>44456</v>
@@ -7682,13 +7682,13 @@
         <v>2021</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I229" s="7">
         <v>1</v>
@@ -7699,7 +7699,7 @@
         <v>310220</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C230" s="6">
         <v>44457</v>
@@ -7711,13 +7711,13 @@
         <v>2021</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I230" s="7">
         <v>1</v>
@@ -7728,7 +7728,7 @@
         <v>313270</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C231" s="6">
         <v>44458</v>
@@ -7740,13 +7740,13 @@
         <v>2021</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I231" s="7">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>310620</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C232" s="6">
         <v>44459</v>
@@ -7769,13 +7769,13 @@
         <v>2021</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I232" s="7">
         <v>1</v>
@@ -7786,7 +7786,7 @@
         <v>314310</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C233" s="6">
         <v>44459</v>
@@ -7798,13 +7798,13 @@
         <v>2021</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I233" s="7">
         <v>1</v>
@@ -7815,7 +7815,7 @@
         <v>316695</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C234" s="6">
         <v>44462</v>
@@ -7827,13 +7827,13 @@
         <v>2021</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I234" s="7">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>317020</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C235" s="6">
         <v>44462</v>
@@ -7856,13 +7856,13 @@
         <v>2021</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I235" s="7">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>312410</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C236" s="6">
         <v>44462</v>
@@ -7885,13 +7885,13 @@
         <v>2021</v>
       </c>
       <c r="F236" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G236" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G236" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H236" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I236" s="7">
         <v>2</v>
@@ -7902,7 +7902,7 @@
         <v>313430</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C237" s="6">
         <v>44463</v>
@@ -7914,13 +7914,13 @@
         <v>2021</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I237" s="7">
         <v>1</v>
@@ -7943,13 +7943,13 @@
         <v>2021</v>
       </c>
       <c r="F238" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G238" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G238" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H238" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
@@ -7960,7 +7960,7 @@
         <v>316070</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C239" s="6">
         <v>44464</v>
@@ -7972,13 +7972,13 @@
         <v>2021</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I239" s="7">
         <v>1</v>
@@ -7989,7 +7989,7 @@
         <v>317040</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C240" s="6">
         <v>44464</v>
@@ -8001,13 +8001,13 @@
         <v>2021</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>311020</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C241" s="6">
         <v>44465</v>
@@ -8030,13 +8030,13 @@
         <v>2021</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I241" s="7">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         <v>310620</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C242" s="6">
         <v>44467</v>
@@ -8059,13 +8059,13 @@
         <v>2021</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I242" s="7">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>313320</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C243" s="6">
         <v>44468</v>
@@ -8088,13 +8088,13 @@
         <v>2021</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I243" s="7">
         <v>1</v>
@@ -8105,7 +8105,7 @@
         <v>313580</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C244" s="6">
         <v>44468</v>
@@ -8117,13 +8117,13 @@
         <v>2021</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I244" s="7">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>314620</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C245" s="6">
         <v>44469</v>
@@ -8146,13 +8146,13 @@
         <v>2021</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I245" s="7">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>310670</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C246" s="6">
         <v>44471</v>
@@ -8175,13 +8175,13 @@
         <v>2021</v>
       </c>
       <c r="F246" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G246" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G246" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H246" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I246" s="7">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>310630</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C247" s="6">
         <v>44472</v>
@@ -8204,13 +8204,13 @@
         <v>2021</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I247" s="7">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>312125</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C248" s="6">
         <v>44474</v>
@@ -8233,13 +8233,13 @@
         <v>2021</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I248" s="7">
         <v>1</v>
@@ -8250,7 +8250,7 @@
         <v>310620</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C249" s="6">
         <v>44477</v>
@@ -8262,13 +8262,13 @@
         <v>2021</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I249" s="7">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>313170</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C250" s="6">
         <v>44479</v>
@@ -8291,13 +8291,13 @@
         <v>2021</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I250" s="7">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>314810</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C251" s="6">
         <v>44479</v>
@@ -8320,13 +8320,13 @@
         <v>2021</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I251" s="7">
         <v>1</v>
@@ -8349,13 +8349,13 @@
         <v>2021</v>
       </c>
       <c r="F252" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G252" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G252" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H252" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I252" s="7">
         <v>1</v>
@@ -8366,7 +8366,7 @@
         <v>313130</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C253" s="6">
         <v>44481</v>
@@ -8378,13 +8378,13 @@
         <v>2021</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I253" s="7">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>313430</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C254" s="6">
         <v>44481</v>
@@ -8407,13 +8407,13 @@
         <v>2021</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I254" s="7">
         <v>1</v>
@@ -8424,7 +8424,7 @@
         <v>315445</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C255" s="6">
         <v>44481</v>
@@ -8436,13 +8436,13 @@
         <v>2021</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I255" s="7">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>317020</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C256" s="6">
         <v>44483</v>
@@ -8465,13 +8465,13 @@
         <v>2021</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I256" s="7">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>313170</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C257" s="6">
         <v>44483</v>
@@ -8494,13 +8494,13 @@
         <v>2021</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I257" s="7">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>315250</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C258" s="6">
         <v>44484</v>
@@ -8523,13 +8523,13 @@
         <v>2021</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I258" s="7">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>310260</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C259" s="6">
         <v>44485</v>
@@ -8552,13 +8552,13 @@
         <v>2021</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I259" s="7">
         <v>1</v>
@@ -8569,7 +8569,7 @@
         <v>310620</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C260" s="6">
         <v>44486</v>
@@ -8581,13 +8581,13 @@
         <v>2021</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I260" s="7">
         <v>1</v>
@@ -8598,7 +8598,7 @@
         <v>315780</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C261" s="6">
         <v>44487</v>
@@ -8610,13 +8610,13 @@
         <v>2021</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I261" s="7">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>310620</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C262" s="6">
         <v>44488</v>
@@ -8639,13 +8639,13 @@
         <v>2021</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I262" s="7">
         <v>1</v>
@@ -8668,13 +8668,13 @@
         <v>2021</v>
       </c>
       <c r="F263" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G263" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G263" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H263" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I263" s="7">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         <v>314080</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C264" s="6">
         <v>44488</v>
@@ -8697,13 +8697,13 @@
         <v>2021</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I264" s="7">
         <v>1</v>
@@ -8714,7 +8714,7 @@
         <v>310390</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C265" s="6">
         <v>44494</v>
@@ -8726,13 +8726,13 @@
         <v>2021</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I265" s="7">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         <v>310620</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C266" s="6">
         <v>44494</v>
@@ -8755,13 +8755,13 @@
         <v>2021</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I266" s="7">
         <v>1</v>
@@ -8772,7 +8772,7 @@
         <v>313670</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C267" s="6">
         <v>44495</v>
@@ -8784,13 +8784,13 @@
         <v>2021</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I267" s="7">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>313670</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C268" s="6">
         <v>44499</v>
@@ -8813,13 +8813,13 @@
         <v>2021</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I268" s="7">
         <v>1</v>
@@ -8830,7 +8830,7 @@
         <v>313750</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C269" s="6">
         <v>44499</v>
@@ -8842,13 +8842,13 @@
         <v>2021</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I269" s="7">
         <v>1</v>
@@ -8859,7 +8859,7 @@
         <v>316990</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C270" s="6">
         <v>44505</v>
@@ -8871,13 +8871,13 @@
         <v>2021</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I270" s="7">
         <v>1</v>
@@ -8888,7 +8888,7 @@
         <v>313760</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C271" s="6">
         <v>44506</v>
@@ -8900,13 +8900,13 @@
         <v>2021</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I271" s="7">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>310620</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C272" s="6">
         <v>44507</v>
@@ -8929,13 +8929,13 @@
         <v>2021</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I272" s="7">
         <v>2</v>
@@ -8946,7 +8946,7 @@
         <v>313545</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C273" s="6">
         <v>44507</v>
@@ -8958,13 +8958,13 @@
         <v>2021</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I273" s="7">
         <v>1</v>
@@ -8975,7 +8975,7 @@
         <v>313420</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C274" s="6">
         <v>44510</v>
@@ -8987,13 +8987,13 @@
         <v>2021</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I274" s="7">
         <v>1</v>
@@ -9004,7 +9004,7 @@
         <v>310480</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C275" s="6">
         <v>44510</v>
@@ -9016,13 +9016,13 @@
         <v>2021</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I275" s="7">
         <v>1</v>
@@ -9033,7 +9033,7 @@
         <v>312410</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C276" s="6">
         <v>44512</v>
@@ -9045,13 +9045,13 @@
         <v>2021</v>
       </c>
       <c r="F276" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G276" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G276" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H276" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I276" s="7">
         <v>1</v>
@@ -9062,7 +9062,7 @@
         <v>310160</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C277" s="6">
         <v>44514</v>
@@ -9074,13 +9074,13 @@
         <v>2021</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I277" s="7">
         <v>1</v>
@@ -9091,7 +9091,7 @@
         <v>310620</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C278" s="6">
         <v>44514</v>
@@ -9103,13 +9103,13 @@
         <v>2021</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I278" s="7">
         <v>1</v>
@@ -9120,7 +9120,7 @@
         <v>313420</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C279" s="6">
         <v>44514</v>
@@ -9132,13 +9132,13 @@
         <v>2021</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I279" s="7">
         <v>1</v>
@@ -9149,7 +9149,7 @@
         <v>310620</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C280" s="6">
         <v>44517</v>
@@ -9161,13 +9161,13 @@
         <v>2021</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I280" s="7">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>313665</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C281" s="6">
         <v>44517</v>
@@ -9190,13 +9190,13 @@
         <v>2021</v>
       </c>
       <c r="F281" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G281" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G281" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H281" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I281" s="7">
         <v>1</v>
@@ -9207,7 +9207,7 @@
         <v>315140</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C282" s="6">
         <v>44518</v>
@@ -9219,13 +9219,13 @@
         <v>2021</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I282" s="7">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>310160</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C283" s="6">
         <v>44521</v>
@@ -9248,13 +9248,13 @@
         <v>2021</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I283" s="7">
         <v>1</v>
@@ -9265,7 +9265,7 @@
         <v>310860</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C284" s="6">
         <v>44523</v>
@@ -9277,13 +9277,13 @@
         <v>2021</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I284" s="7">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>314537</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C285" s="6">
         <v>44526</v>
@@ -9306,13 +9306,13 @@
         <v>2021</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I285" s="7">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>315020</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C286" s="6">
         <v>44528</v>
@@ -9335,13 +9335,13 @@
         <v>2021</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I286" s="7">
         <v>1</v>
@@ -9352,7 +9352,7 @@
         <v>310620</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C287" s="6">
         <v>44530</v>
@@ -9364,13 +9364,13 @@
         <v>2021</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I287" s="7">
         <v>1</v>
@@ -9393,13 +9393,13 @@
         <v>2021</v>
       </c>
       <c r="F288" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G288" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G288" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H288" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I288" s="7">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>313480</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C289" s="6">
         <v>44534</v>
@@ -9422,13 +9422,13 @@
         <v>2021</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I289" s="7">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>316990</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C290" s="6">
         <v>44534</v>
@@ -9451,13 +9451,13 @@
         <v>2021</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I290" s="7">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>315420</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C291" s="6">
         <v>44534</v>
@@ -9480,13 +9480,13 @@
         <v>2021</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I291" s="7">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>312160</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C292" s="6">
         <v>44535</v>
@@ -9509,13 +9509,13 @@
         <v>2021</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I292" s="7">
         <v>1</v>
@@ -9526,7 +9526,7 @@
         <v>314390</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C293" s="6">
         <v>44536</v>
@@ -9538,13 +9538,13 @@
         <v>2021</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I293" s="7">
         <v>1</v>
@@ -9555,7 +9555,7 @@
         <v>313750</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C294" s="6">
         <v>44537</v>
@@ -9567,13 +9567,13 @@
         <v>2021</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I294" s="7">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>314090</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C295" s="6">
         <v>44537</v>
@@ -9596,13 +9596,13 @@
         <v>2021</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I295" s="7">
         <v>1</v>
@@ -9613,7 +9613,7 @@
         <v>310620</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C296" s="6">
         <v>44538</v>
@@ -9625,13 +9625,13 @@
         <v>2021</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I296" s="7">
         <v>1</v>
@@ -9642,7 +9642,7 @@
         <v>314390</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C297" s="6">
         <v>44538</v>
@@ -9654,13 +9654,13 @@
         <v>2021</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I297" s="7">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>315460</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C298" s="6">
         <v>44540</v>
@@ -9683,13 +9683,13 @@
         <v>2021</v>
       </c>
       <c r="F298" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G298" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G298" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H298" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I298" s="7">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>311100</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C299" s="6">
         <v>44540</v>
@@ -9712,13 +9712,13 @@
         <v>2021</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I299" s="7">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>310620</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C300" s="6">
         <v>44541</v>
@@ -9741,13 +9741,13 @@
         <v>2021</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I300" s="7">
         <v>1</v>
@@ -9758,7 +9758,7 @@
         <v>313890</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C301" s="6">
         <v>44541</v>
@@ -9770,13 +9770,13 @@
         <v>2021</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I301" s="7">
         <v>1</v>
@@ -9787,7 +9787,7 @@
         <v>314100</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C302" s="6">
         <v>44541</v>
@@ -9799,13 +9799,13 @@
         <v>2021</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I302" s="7">
         <v>1</v>
@@ -9816,7 +9816,7 @@
         <v>315180</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C303" s="6">
         <v>44541</v>
@@ -9828,13 +9828,13 @@
         <v>2021</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I303" s="7">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>315460</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C304" s="6">
         <v>44542</v>
@@ -9857,13 +9857,13 @@
         <v>2021</v>
       </c>
       <c r="F304" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G304" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G304" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H304" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I304" s="7">
         <v>1</v>
@@ -9874,7 +9874,7 @@
         <v>313840</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C305" s="6">
         <v>44542</v>
@@ -9886,13 +9886,13 @@
         <v>2021</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I305" s="7">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>317090</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C306" s="6">
         <v>44542</v>
@@ -9915,13 +9915,13 @@
         <v>2021</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I306" s="7">
         <v>1</v>
@@ -9932,7 +9932,7 @@
         <v>314330</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C307" s="6">
         <v>44545</v>
@@ -9944,13 +9944,13 @@
         <v>2021</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I307" s="7">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>313670</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C308" s="6">
         <v>44546</v>
@@ -9973,13 +9973,13 @@
         <v>2021</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I308" s="7">
         <v>1</v>
@@ -9990,7 +9990,7 @@
         <v>313440</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C309" s="6">
         <v>44547</v>
@@ -10002,13 +10002,13 @@
         <v>2021</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I309" s="7">
         <v>1</v>
@@ -10019,7 +10019,7 @@
         <v>313190</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C310" s="6">
         <v>44549</v>
@@ -10031,13 +10031,13 @@
         <v>2021</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I310" s="7">
         <v>1</v>
@@ -10048,7 +10048,7 @@
         <v>314050</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C311" s="6">
         <v>44549</v>
@@ -10060,13 +10060,13 @@
         <v>2021</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I311" s="7">
         <v>1</v>
@@ -10077,7 +10077,7 @@
         <v>316470</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C312" s="6">
         <v>44549</v>
@@ -10089,13 +10089,13 @@
         <v>2021</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I312" s="7">
         <v>1</v>
@@ -10106,7 +10106,7 @@
         <v>310620</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C313" s="6">
         <v>44550</v>
@@ -10118,13 +10118,13 @@
         <v>2021</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I313" s="7">
         <v>1</v>
@@ -10135,7 +10135,7 @@
         <v>313505</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C314" s="6">
         <v>44550</v>
@@ -10147,13 +10147,13 @@
         <v>2021</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I314" s="7">
         <v>1</v>
@@ -10164,7 +10164,7 @@
         <v>315120</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C315" s="6">
         <v>44553</v>
@@ -10176,13 +10176,13 @@
         <v>2021</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I315" s="7">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>316880</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C316" s="6">
         <v>44553</v>
@@ -10205,13 +10205,13 @@
         <v>2021</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I316" s="7">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>312160</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C317" s="6">
         <v>44555</v>
@@ -10234,13 +10234,13 @@
         <v>2021</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I317" s="7">
         <v>1</v>
@@ -10251,7 +10251,7 @@
         <v>317020</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C318" s="6">
         <v>44555</v>
@@ -10263,13 +10263,13 @@
         <v>2021</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I318" s="7">
         <v>1</v>
@@ -10280,7 +10280,7 @@
         <v>313170</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C319" s="6">
         <v>44555</v>
@@ -10292,13 +10292,13 @@
         <v>2021</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I319" s="7">
         <v>1</v>
@@ -10309,7 +10309,7 @@
         <v>315780</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C320" s="6">
         <v>44555</v>
@@ -10321,13 +10321,13 @@
         <v>2021</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I320" s="7">
         <v>1</v>
@@ -10338,7 +10338,7 @@
         <v>313980</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C321" s="6">
         <v>44556</v>
@@ -10350,13 +10350,13 @@
         <v>2021</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I321" s="7">
         <v>1</v>
@@ -10367,7 +10367,7 @@
         <v>315460</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C322" s="6">
         <v>44558</v>
@@ -10379,13 +10379,13 @@
         <v>2021</v>
       </c>
       <c r="F322" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G322" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G322" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H322" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I322" s="7">
         <v>1</v>
@@ -10396,7 +10396,7 @@
         <v>313130</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C323" s="6">
         <v>44558</v>
@@ -10408,13 +10408,13 @@
         <v>2021</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I323" s="7">
         <v>1</v>
